--- a/design-document/ScreenRegisterMember.xlsx
+++ b/design-document/ScreenRegisterMember.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,11 @@
     <sheet name="03_Definition" sheetId="4" r:id="rId3"/>
     <sheet name="04_Check Condition Monadic" sheetId="5" r:id="rId4"/>
     <sheet name="05_Check Condition" sheetId="6" r:id="rId5"/>
+    <sheet name="06_Mapping Class, Action" sheetId="7" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$K$84</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'02_Item definition'!$A$1:$N$34</definedName>
@@ -23,7 +27,9 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'02_Item definition'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'04_Check Condition Monadic'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'05_Check Condition'!$1:$4</definedName>
+    <definedName name="YAJI_MT_登録仕訳" localSheetId="5">#REF!</definedName>
     <definedName name="YAJI_MT_登録仕訳">#REF!</definedName>
+    <definedName name="ああ" localSheetId="5">#REF!</definedName>
     <definedName name="ああ">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -70,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="198">
   <si>
     <t>input/show Cấp Đan AIKIKAI 8</t>
   </si>
@@ -656,6 +662,36 @@
   <si>
     <t>Ｎｏ</t>
     <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>DAO</t>
+  </si>
+  <si>
+    <t>BLO</t>
+  </si>
+  <si>
+    <t>VIEW</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin hội viên</t>
+  </si>
+  <si>
+    <t>Lưu thông tin hội viên</t>
+  </si>
+  <si>
+    <t>LoadMemberInfo.cs,</t>
+  </si>
+  <si>
+    <t>SaveMemberInfo.cs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Student,DbConnect.cs</t>
+  </si>
+  <si>
+    <t>RegisterMemberScreen.xaml</t>
   </si>
 </sst>
 </file>
@@ -694,7 +730,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -735,7 +771,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -766,8 +802,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1137,6 +1179,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1145,7 +1293,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1354,6 +1502,47 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1381,12 +1570,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1401,36 +1584,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1450,11 +1603,43 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5714,6 +5899,679 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2455333</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>663787</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 199"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9177866" cy="663787"/>
+          <a:chOff x="0" y="2"/>
+          <a:chExt cx="1121" cy="52"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 200" descr="PTMS_docs_header"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect b="32468"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="2"/>
+            <a:ext cx="1121" cy="52"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Text Box 201"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="287" y="10"/>
+            <a:ext cx="274" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Screen item definition</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Text Box 202"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="565" y="11"/>
+            <a:ext cx="155" cy="20"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>system-name</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Text Box 203"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="727" y="9"/>
+            <a:ext cx="384" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>Aidiko dojo's Member Management</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Text Box 204"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="163" y="10"/>
+            <a:ext cx="122" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>AKD</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Text Box 205"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="566" y="34"/>
+            <a:ext cx="155" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Screen ID</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Text Box 206"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="161" y="34"/>
+            <a:ext cx="394" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Register worker</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Text Box 207"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="725" y="33"/>
+            <a:ext cx="393" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>AKD002</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Text Box 208"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4" y="11"/>
+            <a:ext cx="154" cy="20"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Form number</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Text Box 209"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3" y="34"/>
+            <a:ext cx="154" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>screen name</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="01_Screen Layout"/>
+      <sheetName val="02_Item Definition"/>
+      <sheetName val="03_Definition"/>
+      <sheetName val="04_check Condition Monadic"/>
+      <sheetName val="05_Check Condition"/>
+      <sheetName val="06_Mapping Class, Action"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5979,7 +6837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
@@ -7404,328 +8262,335 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="73"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73" t="s">
+      <c r="E1" s="88"/>
+      <c r="F1" s="88" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="74" t="s">
+      <c r="G1" s="88"/>
+      <c r="H1" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="76"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="91"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="102" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="77" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80" t="s">
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="77" t="s">
+      <c r="G2" s="95"/>
+      <c r="H2" s="92" t="s">
         <v>144</v>
       </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="84"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="97"/>
     </row>
     <row r="3" spans="1:12" ht="45.35" customHeight="1">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="103" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="81" t="s">
+      <c r="B3" s="104"/>
+      <c r="C3" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="83"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="96"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="85" t="s">
+      <c r="B4" s="106"/>
+      <c r="C4" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="87"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="100"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="104"/>
-      <c r="B5" s="104"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
     </row>
     <row r="6" spans="1:12" ht="13.35">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="87" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="92" t="s">
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
     </row>
     <row r="9" spans="1:12" ht="200.85" customHeight="1">
       <c r="A9" s="26">
         <v>1</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="96" t="s">
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
     </row>
     <row r="10" spans="1:12">
       <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:12" ht="13.35">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="92" t="s">
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
     </row>
     <row r="14" spans="1:12" ht="31.5" customHeight="1">
       <c r="A14" s="26">
         <v>1</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="81" t="s">
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="91"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="79"/>
     </row>
     <row r="15" spans="1:12" ht="15.85" customHeight="1">
       <c r="A15" s="26">
         <v>2</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="81" t="s">
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="91"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="79"/>
     </row>
     <row r="16" spans="1:12" ht="64.7" customHeight="1">
       <c r="A16" s="26">
         <v>3</v>
       </c>
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="90" t="s">
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="91"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="79"/>
     </row>
     <row r="17" spans="1:11" ht="13.35">
-      <c r="A17" s="105"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
     </row>
     <row r="18" spans="1:11" ht="13.35">
-      <c r="A18" s="105"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="105"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="105"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="104"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="104"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="104"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="104"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="104"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="104"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="104"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="E16:L16"/>
     <mergeCell ref="E13:L13"/>
@@ -7739,20 +8604,13 @@
     <mergeCell ref="E15:L15"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7769,7 +8627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F35"/>
     </sheetView>
   </sheetViews>
@@ -9413,7 +10271,7 @@
   </sheetPr>
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -10373,4 +11231,357 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.35"/>
+  <cols>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" customWidth="1"/>
+    <col min="11" max="24" width="8.88671875" style="119"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="56.35" customHeight="1" thickBot="1">
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="11.35">
+      <c r="A2" s="110"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+    </row>
+    <row r="3" spans="1:24" s="1" customFormat="1" ht="70" customHeight="1">
+      <c r="A3" s="113" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="114" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+    </row>
+    <row r="4" spans="1:24" s="1" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A4" s="116">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="117" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="118" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="108"/>
+    </row>
+    <row r="5" spans="1:24" s="1" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A5" s="116">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="117" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="118" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="108"/>
+      <c r="W5" s="108"/>
+      <c r="X5" s="108"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="119"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="119"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="119"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="119"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="119"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="119"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="119"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="119"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="119"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="119"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+    </row>
+    <row r="16" spans="1:24" s="119" customFormat="1">
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+    </row>
+    <row r="17" spans="6:10" s="119" customFormat="1">
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+    </row>
+    <row r="18" spans="6:10" s="119" customFormat="1"/>
+    <row r="19" spans="6:10" s="119" customFormat="1"/>
+    <row r="20" spans="6:10" s="119" customFormat="1"/>
+    <row r="21" spans="6:10" s="119" customFormat="1"/>
+    <row r="22" spans="6:10" s="119" customFormat="1"/>
+    <row r="23" spans="6:10" s="119" customFormat="1"/>
+    <row r="24" spans="6:10" s="119" customFormat="1"/>
+    <row r="25" spans="6:10" s="119" customFormat="1"/>
+    <row r="26" spans="6:10" s="119" customFormat="1"/>
+    <row r="27" spans="6:10" s="119" customFormat="1"/>
+    <row r="28" spans="6:10" s="119" customFormat="1"/>
+    <row r="29" spans="6:10" s="119" customFormat="1"/>
+    <row r="30" spans="6:10" s="119" customFormat="1"/>
+    <row r="31" spans="6:10" s="119" customFormat="1"/>
+    <row r="32" spans="6:10" s="119" customFormat="1"/>
+    <row r="33" s="119" customFormat="1"/>
+    <row r="34" s="119" customFormat="1"/>
+    <row r="35" s="119" customFormat="1"/>
+    <row r="36" s="119" customFormat="1"/>
+    <row r="37" s="119" customFormat="1"/>
+    <row r="38" s="119" customFormat="1"/>
+    <row r="39" s="119" customFormat="1"/>
+    <row r="40" s="119" customFormat="1"/>
+    <row r="41" s="119" customFormat="1"/>
+    <row r="42" s="119" customFormat="1"/>
+    <row r="43" s="119" customFormat="1"/>
+    <row r="44" s="119" customFormat="1"/>
+    <row r="45" s="119" customFormat="1"/>
+    <row r="46" s="119" customFormat="1"/>
+    <row r="47" s="119" customFormat="1"/>
+    <row r="48" s="119" customFormat="1"/>
+    <row r="49" s="119" customFormat="1"/>
+    <row r="50" s="119" customFormat="1"/>
+    <row r="51" s="119" customFormat="1"/>
+    <row r="52" s="119" customFormat="1"/>
+    <row r="53" s="119" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/design-document/ScreenRegisterMember.xlsx
+++ b/design-document/ScreenRegisterMember.xlsx
@@ -14,7 +14,7 @@
     <sheet name="05_Check Condition" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$K$84</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$K$60</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'02_Item definition'!$A$1:$J$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'03_Definition'!$A$1:$V$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'04_Check Condition Monadic'!$A$1:$O$35</definedName>
@@ -1434,6 +1434,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1721,12 +1727,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2484,132 +2484,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5273040" cy="5394960"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="480060" y="457200"/>
-          <a:ext cx="5273040" cy="5394960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>473287</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>104140</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5257800" cy="6118860"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="473287" y="6276340"/>
-          <a:ext cx="5257800" cy="6118860"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2633,7 +2507,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="15240"/>
-          <a:ext cx="7128933" cy="502920"/>
+          <a:ext cx="9127067" cy="502920"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -3255,6 +3129,94 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>524933</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>592666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1820333</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>91016</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1210733" y="592666"/>
+          <a:ext cx="7467600" cy="5238750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1809749</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219199" y="5791200"/>
+          <a:ext cx="7448550" cy="3076575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8519,15 +8481,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
   <cols>
     <col min="1" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="3.5546875" style="1" customWidth="1"/>
-    <col min="12" max="14" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="29.77734375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5546875" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -9763,97 +9726,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="92"/>
+      <c r="B1" s="94"/>
       <c r="C1" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92" t="s">
+      <c r="E1" s="94"/>
+      <c r="F1" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="100" t="s">
+      <c r="G1" s="94"/>
+      <c r="H1" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="102"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="104"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="84" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="94" t="s">
+      <c r="D2" s="87"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="96" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="94"/>
-      <c r="H2" s="84" t="s">
+      <c r="G2" s="96"/>
+      <c r="H2" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="88"/>
     </row>
     <row r="3" spans="1:22" ht="45.35" customHeight="1">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="81" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="83"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="88" t="s">
+      <c r="B4" s="100"/>
+      <c r="C4" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="92"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="99"/>
-      <c r="B5" s="99"/>
+      <c r="A5" s="101"/>
+      <c r="B5" s="101"/>
     </row>
     <row r="6" spans="1:22" ht="13.35">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
       <c r="N6" s="58" t="s">
         <v>166</v>
       </c>
@@ -9862,102 +9825,102 @@
       <c r="A8" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="151" t="s">
+      <c r="B8" s="153" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="152"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="151" t="s">
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="153" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="152"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="152"/>
-      <c r="K8" s="152"/>
-      <c r="L8" s="152"/>
-      <c r="N8" s="111" t="s">
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="154"/>
+      <c r="N8" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="O8" s="111" t="s">
+      <c r="O8" s="113" t="s">
         <v>158</v>
       </c>
-      <c r="P8" s="153" t="s">
+      <c r="P8" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="Q8" s="155"/>
-      <c r="R8" s="155"/>
-      <c r="S8" s="155"/>
-      <c r="T8" s="154"/>
-      <c r="U8" s="111" t="s">
+      <c r="Q8" s="157"/>
+      <c r="R8" s="157"/>
+      <c r="S8" s="157"/>
+      <c r="T8" s="156"/>
+      <c r="U8" s="113" t="s">
         <v>168</v>
       </c>
-      <c r="V8" s="111" t="s">
+      <c r="V8" s="113" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="16.7" customHeight="1">
-      <c r="A9" s="113">
+      <c r="A9" s="115">
         <v>1</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="118" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="143"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="134" t="s">
+      <c r="C9" s="145"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="136" t="s">
         <v>173</v>
       </c>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="136"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="153" t="s">
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="138"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="155" t="s">
         <v>171</v>
       </c>
-      <c r="Q9" s="155"/>
+      <c r="Q9" s="157"/>
       <c r="R9" s="72"/>
-      <c r="S9" s="153" t="s">
+      <c r="S9" s="155" t="s">
         <v>172</v>
       </c>
-      <c r="T9" s="154"/>
-      <c r="U9" s="112"/>
-      <c r="V9" s="112"/>
+      <c r="T9" s="156"/>
+      <c r="U9" s="114"/>
+      <c r="V9" s="114"/>
     </row>
     <row r="10" spans="1:22" ht="39.35" customHeight="1">
-      <c r="A10" s="114"/>
-      <c r="B10" s="145"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="139"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="141"/>
       <c r="N10" s="66">
         <v>1</v>
       </c>
       <c r="O10" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="P10" s="104" t="s">
+      <c r="P10" s="106" t="s">
         <v>176</v>
       </c>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="107" t="s">
+      <c r="Q10" s="107"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="109" t="s">
         <v>174</v>
       </c>
-      <c r="T10" s="108"/>
+      <c r="T10" s="110"/>
       <c r="U10" s="64" t="s">
         <v>170</v>
       </c>
@@ -9966,33 +9929,33 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="17.350000000000001" customHeight="1">
-      <c r="A11" s="114"/>
-      <c r="B11" s="145"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="139"/>
+      <c r="A11" s="116"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="141"/>
       <c r="N11" s="67">
         <v>2</v>
       </c>
       <c r="O11" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="P11" s="159" t="s">
+      <c r="P11" s="161" t="s">
         <v>154</v>
       </c>
-      <c r="Q11" s="161"/>
+      <c r="Q11" s="163"/>
       <c r="R11" s="71"/>
-      <c r="S11" s="109" t="s">
+      <c r="S11" s="111" t="s">
         <v>175</v>
       </c>
-      <c r="T11" s="110"/>
+      <c r="T11" s="112"/>
       <c r="U11" s="64" t="s">
         <v>170</v>
       </c>
@@ -10001,31 +9964,31 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="179.35" customHeight="1">
-      <c r="A12" s="114"/>
-      <c r="B12" s="145"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="138"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="139"/>
+      <c r="A12" s="116"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="141"/>
       <c r="N12" s="60">
         <v>3</v>
       </c>
       <c r="O12" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="P12" s="159" t="s">
+      <c r="P12" s="161" t="s">
         <v>177</v>
       </c>
-      <c r="Q12" s="161"/>
+      <c r="Q12" s="163"/>
       <c r="R12" s="71"/>
-      <c r="S12" s="159"/>
-      <c r="T12" s="160"/>
+      <c r="S12" s="161"/>
+      <c r="T12" s="162"/>
       <c r="U12" s="65" t="s">
         <v>170</v>
       </c>
@@ -10034,501 +9997,501 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="12.7" customHeight="1">
-      <c r="A13" s="114"/>
-      <c r="B13" s="145"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="139"/>
-      <c r="N13" s="168">
+      <c r="A13" s="116"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="141"/>
+      <c r="N13" s="170">
         <v>3</v>
       </c>
-      <c r="O13" s="171" t="s">
+      <c r="O13" s="173" t="s">
         <v>178</v>
       </c>
-      <c r="P13" s="162" t="s">
+      <c r="P13" s="164" t="s">
         <v>177</v>
       </c>
-      <c r="Q13" s="163"/>
+      <c r="Q13" s="165"/>
       <c r="R13" s="70"/>
-      <c r="S13" s="162"/>
-      <c r="T13" s="163"/>
-      <c r="U13" s="156" t="s">
+      <c r="S13" s="164"/>
+      <c r="T13" s="165"/>
+      <c r="U13" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="V13" s="156" t="s">
+      <c r="V13" s="158" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="12.7" customHeight="1">
-      <c r="A14" s="114"/>
-      <c r="B14" s="145"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="139"/>
-      <c r="N14" s="169"/>
-      <c r="O14" s="172"/>
-      <c r="P14" s="164"/>
-      <c r="Q14" s="165"/>
-      <c r="S14" s="164"/>
-      <c r="T14" s="165"/>
-      <c r="U14" s="157"/>
-      <c r="V14" s="157"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="141"/>
+      <c r="N14" s="171"/>
+      <c r="O14" s="174"/>
+      <c r="P14" s="166"/>
+      <c r="Q14" s="167"/>
+      <c r="S14" s="166"/>
+      <c r="T14" s="167"/>
+      <c r="U14" s="159"/>
+      <c r="V14" s="159"/>
     </row>
     <row r="15" spans="1:22" ht="12.7" customHeight="1">
-      <c r="A15" s="114"/>
-      <c r="B15" s="145"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="138"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="138"/>
-      <c r="K15" s="138"/>
-      <c r="L15" s="139"/>
-      <c r="N15" s="169"/>
-      <c r="O15" s="172"/>
-      <c r="P15" s="164"/>
-      <c r="Q15" s="165"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="165"/>
-      <c r="U15" s="157"/>
-      <c r="V15" s="157"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="141"/>
+      <c r="N15" s="171"/>
+      <c r="O15" s="174"/>
+      <c r="P15" s="166"/>
+      <c r="Q15" s="167"/>
+      <c r="S15" s="166"/>
+      <c r="T15" s="167"/>
+      <c r="U15" s="159"/>
+      <c r="V15" s="159"/>
     </row>
     <row r="16" spans="1:22" ht="13.35" customHeight="1">
-      <c r="A16" s="114"/>
-      <c r="B16" s="145"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="138"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="139"/>
-      <c r="N16" s="169"/>
-      <c r="O16" s="172"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="165"/>
-      <c r="S16" s="164"/>
-      <c r="T16" s="165"/>
-      <c r="U16" s="157"/>
-      <c r="V16" s="157"/>
+      <c r="A16" s="116"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="140"/>
+      <c r="K16" s="140"/>
+      <c r="L16" s="141"/>
+      <c r="N16" s="171"/>
+      <c r="O16" s="174"/>
+      <c r="P16" s="166"/>
+      <c r="Q16" s="167"/>
+      <c r="S16" s="166"/>
+      <c r="T16" s="167"/>
+      <c r="U16" s="159"/>
+      <c r="V16" s="159"/>
     </row>
     <row r="17" spans="1:22" ht="13.35" customHeight="1">
-      <c r="A17" s="114"/>
-      <c r="B17" s="145"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="138"/>
-      <c r="K17" s="138"/>
-      <c r="L17" s="139"/>
-      <c r="N17" s="169"/>
-      <c r="O17" s="172"/>
-      <c r="P17" s="164"/>
-      <c r="Q17" s="165"/>
-      <c r="S17" s="164"/>
-      <c r="T17" s="165"/>
-      <c r="U17" s="157"/>
-      <c r="V17" s="157"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="140"/>
+      <c r="L17" s="141"/>
+      <c r="N17" s="171"/>
+      <c r="O17" s="174"/>
+      <c r="P17" s="166"/>
+      <c r="Q17" s="167"/>
+      <c r="S17" s="166"/>
+      <c r="T17" s="167"/>
+      <c r="U17" s="159"/>
+      <c r="V17" s="159"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="114"/>
-      <c r="B18" s="145"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="138"/>
-      <c r="L18" s="139"/>
-      <c r="N18" s="169"/>
-      <c r="O18" s="172"/>
-      <c r="P18" s="164"/>
-      <c r="Q18" s="165"/>
-      <c r="S18" s="164"/>
-      <c r="T18" s="165"/>
-      <c r="U18" s="157"/>
-      <c r="V18" s="157"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="141"/>
+      <c r="N18" s="171"/>
+      <c r="O18" s="174"/>
+      <c r="P18" s="166"/>
+      <c r="Q18" s="167"/>
+      <c r="S18" s="166"/>
+      <c r="T18" s="167"/>
+      <c r="U18" s="159"/>
+      <c r="V18" s="159"/>
     </row>
     <row r="19" spans="1:22" ht="8.6999999999999993" customHeight="1">
-      <c r="A19" s="114"/>
-      <c r="B19" s="145"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="138"/>
-      <c r="K19" s="138"/>
-      <c r="L19" s="139"/>
-      <c r="N19" s="169"/>
-      <c r="O19" s="172"/>
-      <c r="P19" s="164"/>
-      <c r="Q19" s="165"/>
-      <c r="S19" s="164"/>
-      <c r="T19" s="165"/>
-      <c r="U19" s="157"/>
-      <c r="V19" s="157"/>
+      <c r="A19" s="116"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="140"/>
+      <c r="L19" s="141"/>
+      <c r="N19" s="171"/>
+      <c r="O19" s="174"/>
+      <c r="P19" s="166"/>
+      <c r="Q19" s="167"/>
+      <c r="S19" s="166"/>
+      <c r="T19" s="167"/>
+      <c r="U19" s="159"/>
+      <c r="V19" s="159"/>
     </row>
     <row r="20" spans="1:22" ht="12.7" hidden="1" customHeight="1">
-      <c r="A20" s="114"/>
-      <c r="B20" s="145"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="138"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="138"/>
-      <c r="L20" s="139"/>
-      <c r="N20" s="169"/>
-      <c r="O20" s="172"/>
-      <c r="P20" s="164"/>
-      <c r="Q20" s="165"/>
-      <c r="S20" s="164"/>
-      <c r="T20" s="165"/>
-      <c r="U20" s="157"/>
-      <c r="V20" s="157"/>
+      <c r="A20" s="116"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="140"/>
+      <c r="K20" s="140"/>
+      <c r="L20" s="141"/>
+      <c r="N20" s="171"/>
+      <c r="O20" s="174"/>
+      <c r="P20" s="166"/>
+      <c r="Q20" s="167"/>
+      <c r="S20" s="166"/>
+      <c r="T20" s="167"/>
+      <c r="U20" s="159"/>
+      <c r="V20" s="159"/>
     </row>
     <row r="21" spans="1:22" ht="12.7" hidden="1" customHeight="1">
-      <c r="A21" s="115"/>
-      <c r="B21" s="148"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="141"/>
-      <c r="L21" s="142"/>
-      <c r="N21" s="169"/>
-      <c r="O21" s="172"/>
-      <c r="P21" s="164"/>
-      <c r="Q21" s="165"/>
-      <c r="S21" s="164"/>
-      <c r="T21" s="165"/>
-      <c r="U21" s="157"/>
-      <c r="V21" s="157"/>
+      <c r="A21" s="117"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="144"/>
+      <c r="N21" s="171"/>
+      <c r="O21" s="174"/>
+      <c r="P21" s="166"/>
+      <c r="Q21" s="167"/>
+      <c r="S21" s="166"/>
+      <c r="T21" s="167"/>
+      <c r="U21" s="159"/>
+      <c r="V21" s="159"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="99"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="N22" s="169"/>
-      <c r="O22" s="172"/>
-      <c r="P22" s="164"/>
-      <c r="Q22" s="165"/>
-      <c r="S22" s="164"/>
-      <c r="T22" s="165"/>
-      <c r="U22" s="157"/>
-      <c r="V22" s="157"/>
+      <c r="A22" s="101"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="N22" s="171"/>
+      <c r="O22" s="174"/>
+      <c r="P22" s="166"/>
+      <c r="Q22" s="167"/>
+      <c r="S22" s="166"/>
+      <c r="T22" s="167"/>
+      <c r="U22" s="159"/>
+      <c r="V22" s="159"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="N23" s="169"/>
-      <c r="O23" s="172"/>
-      <c r="P23" s="164"/>
-      <c r="Q23" s="165"/>
-      <c r="S23" s="164"/>
-      <c r="T23" s="165"/>
-      <c r="U23" s="157"/>
-      <c r="V23" s="157"/>
+      <c r="N23" s="171"/>
+      <c r="O23" s="174"/>
+      <c r="P23" s="166"/>
+      <c r="Q23" s="167"/>
+      <c r="S23" s="166"/>
+      <c r="T23" s="167"/>
+      <c r="U23" s="159"/>
+      <c r="V23" s="159"/>
     </row>
     <row r="24" spans="1:22" ht="13.35">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="N24" s="169"/>
-      <c r="O24" s="172"/>
-      <c r="P24" s="164"/>
-      <c r="Q24" s="165"/>
-      <c r="S24" s="164"/>
-      <c r="T24" s="165"/>
-      <c r="U24" s="157"/>
-      <c r="V24" s="157"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="N24" s="171"/>
+      <c r="O24" s="174"/>
+      <c r="P24" s="166"/>
+      <c r="Q24" s="167"/>
+      <c r="S24" s="166"/>
+      <c r="T24" s="167"/>
+      <c r="U24" s="159"/>
+      <c r="V24" s="159"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="N25" s="169"/>
-      <c r="O25" s="172"/>
-      <c r="P25" s="164"/>
-      <c r="Q25" s="165"/>
-      <c r="S25" s="164"/>
-      <c r="T25" s="165"/>
-      <c r="U25" s="157"/>
-      <c r="V25" s="157"/>
+      <c r="N25" s="171"/>
+      <c r="O25" s="174"/>
+      <c r="P25" s="166"/>
+      <c r="Q25" s="167"/>
+      <c r="S25" s="166"/>
+      <c r="T25" s="167"/>
+      <c r="U25" s="159"/>
+      <c r="V25" s="159"/>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="151" t="s">
+      <c r="B26" s="153" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="152"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="151" t="s">
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="153" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="152"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="152"/>
-      <c r="L26" s="152"/>
-      <c r="N26" s="169"/>
-      <c r="O26" s="172"/>
-      <c r="P26" s="164"/>
-      <c r="Q26" s="165"/>
-      <c r="S26" s="164"/>
-      <c r="T26" s="165"/>
-      <c r="U26" s="157"/>
-      <c r="V26" s="157"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="154"/>
+      <c r="N26" s="171"/>
+      <c r="O26" s="174"/>
+      <c r="P26" s="166"/>
+      <c r="Q26" s="167"/>
+      <c r="S26" s="166"/>
+      <c r="T26" s="167"/>
+      <c r="U26" s="159"/>
+      <c r="V26" s="159"/>
     </row>
     <row r="27" spans="1:22" ht="18.7" customHeight="1">
-      <c r="A27" s="113">
+      <c r="A27" s="115">
         <v>1</v>
       </c>
-      <c r="B27" s="116" t="s">
+      <c r="B27" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="143"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="134" t="s">
+      <c r="C27" s="145"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="136" t="s">
         <v>165</v>
       </c>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="135"/>
-      <c r="L27" s="136"/>
-      <c r="N27" s="169"/>
-      <c r="O27" s="172"/>
-      <c r="P27" s="164"/>
-      <c r="Q27" s="165"/>
-      <c r="S27" s="164"/>
-      <c r="T27" s="165"/>
-      <c r="U27" s="157"/>
-      <c r="V27" s="157"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="137"/>
+      <c r="L27" s="138"/>
+      <c r="N27" s="171"/>
+      <c r="O27" s="174"/>
+      <c r="P27" s="166"/>
+      <c r="Q27" s="167"/>
+      <c r="S27" s="166"/>
+      <c r="T27" s="167"/>
+      <c r="U27" s="159"/>
+      <c r="V27" s="159"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="114"/>
-      <c r="B28" s="145"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="138"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="139"/>
-      <c r="N28" s="169"/>
-      <c r="O28" s="172"/>
-      <c r="P28" s="164"/>
-      <c r="Q28" s="165"/>
-      <c r="S28" s="164"/>
-      <c r="T28" s="165"/>
-      <c r="U28" s="157"/>
-      <c r="V28" s="157"/>
+      <c r="A28" s="116"/>
+      <c r="B28" s="147"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="140"/>
+      <c r="L28" s="141"/>
+      <c r="N28" s="171"/>
+      <c r="O28" s="174"/>
+      <c r="P28" s="166"/>
+      <c r="Q28" s="167"/>
+      <c r="S28" s="166"/>
+      <c r="T28" s="167"/>
+      <c r="U28" s="159"/>
+      <c r="V28" s="159"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="115"/>
-      <c r="B29" s="148"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="141"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="142"/>
-      <c r="N29" s="169"/>
-      <c r="O29" s="172"/>
-      <c r="P29" s="164"/>
-      <c r="Q29" s="165"/>
-      <c r="S29" s="164"/>
-      <c r="T29" s="165"/>
-      <c r="U29" s="157"/>
-      <c r="V29" s="157"/>
+      <c r="A29" s="117"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="143"/>
+      <c r="K29" s="143"/>
+      <c r="L29" s="144"/>
+      <c r="N29" s="171"/>
+      <c r="O29" s="174"/>
+      <c r="P29" s="166"/>
+      <c r="Q29" s="167"/>
+      <c r="S29" s="166"/>
+      <c r="T29" s="167"/>
+      <c r="U29" s="159"/>
+      <c r="V29" s="159"/>
     </row>
     <row r="30" spans="1:22" ht="12.7" customHeight="1">
-      <c r="A30" s="113">
-        <v>2</v>
-      </c>
-      <c r="B30" s="116" t="s">
+      <c r="A30" s="115">
+        <v>2</v>
+      </c>
+      <c r="B30" s="118" t="s">
         <v>178</v>
       </c>
-      <c r="C30" s="117"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="125" t="s">
+      <c r="C30" s="119"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="127" t="s">
         <v>164</v>
       </c>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="126"/>
-      <c r="K30" s="126"/>
-      <c r="L30" s="127"/>
-      <c r="N30" s="170"/>
-      <c r="O30" s="173"/>
-      <c r="P30" s="166"/>
-      <c r="Q30" s="167"/>
-      <c r="S30" s="166"/>
-      <c r="T30" s="167"/>
-      <c r="U30" s="158"/>
-      <c r="V30" s="158"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="128"/>
+      <c r="L30" s="129"/>
+      <c r="N30" s="172"/>
+      <c r="O30" s="175"/>
+      <c r="P30" s="168"/>
+      <c r="Q30" s="169"/>
+      <c r="S30" s="168"/>
+      <c r="T30" s="169"/>
+      <c r="U30" s="160"/>
+      <c r="V30" s="160"/>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="114"/>
-      <c r="B31" s="119"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="129"/>
-      <c r="J31" s="129"/>
-      <c r="K31" s="129"/>
-      <c r="L31" s="130"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="131"/>
+      <c r="L31" s="132"/>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="114"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="129"/>
-      <c r="H32" s="129"/>
-      <c r="I32" s="129"/>
-      <c r="J32" s="129"/>
-      <c r="K32" s="129"/>
-      <c r="L32" s="130"/>
+      <c r="A32" s="116"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="131"/>
+      <c r="L32" s="132"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="115"/>
-      <c r="B33" s="122"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="132"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="132"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="133"/>
+      <c r="A33" s="117"/>
+      <c r="B33" s="124"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="134"/>
+      <c r="H33" s="134"/>
+      <c r="I33" s="134"/>
+      <c r="J33" s="134"/>
+      <c r="K33" s="134"/>
+      <c r="L33" s="135"/>
     </row>
     <row r="34" spans="1:12" ht="12.7" customHeight="1">
-      <c r="A34" s="113">
+      <c r="A34" s="115">
         <v>3</v>
       </c>
-      <c r="B34" s="116" t="s">
+      <c r="B34" s="118" t="s">
         <v>179</v>
       </c>
-      <c r="C34" s="117"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="125" t="s">
+      <c r="C34" s="119"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="127" t="s">
         <v>180</v>
       </c>
-      <c r="F34" s="126"/>
-      <c r="G34" s="126"/>
-      <c r="H34" s="126"/>
-      <c r="I34" s="126"/>
-      <c r="J34" s="126"/>
-      <c r="K34" s="126"/>
-      <c r="L34" s="127"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="128"/>
+      <c r="J34" s="128"/>
+      <c r="K34" s="128"/>
+      <c r="L34" s="129"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="114"/>
-      <c r="B35" s="119"/>
-      <c r="C35" s="120"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="129"/>
-      <c r="H35" s="129"/>
-      <c r="I35" s="129"/>
-      <c r="J35" s="129"/>
-      <c r="K35" s="129"/>
-      <c r="L35" s="130"/>
+      <c r="A35" s="116"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="131"/>
+      <c r="K35" s="131"/>
+      <c r="L35" s="132"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="114"/>
-      <c r="B36" s="119"/>
-      <c r="C36" s="120"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="129"/>
-      <c r="G36" s="129"/>
-      <c r="H36" s="129"/>
-      <c r="I36" s="129"/>
-      <c r="J36" s="129"/>
-      <c r="K36" s="129"/>
-      <c r="L36" s="130"/>
+      <c r="A36" s="116"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="131"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="131"/>
+      <c r="K36" s="131"/>
+      <c r="L36" s="132"/>
     </row>
     <row r="37" spans="1:12" ht="28" customHeight="1">
-      <c r="A37" s="115"/>
-      <c r="B37" s="122"/>
-      <c r="C37" s="123"/>
-      <c r="D37" s="124"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="132"/>
-      <c r="G37" s="132"/>
-      <c r="H37" s="132"/>
-      <c r="I37" s="132"/>
-      <c r="J37" s="132"/>
-      <c r="K37" s="132"/>
-      <c r="L37" s="133"/>
+      <c r="A37" s="117"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="133"/>
+      <c r="F37" s="134"/>
+      <c r="G37" s="134"/>
+      <c r="H37" s="134"/>
+      <c r="I37" s="134"/>
+      <c r="J37" s="134"/>
+      <c r="K37" s="134"/>
+      <c r="L37" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="51">
@@ -10632,25 +10595,25 @@
       <c r="A2" s="34"/>
       <c r="B2" s="33"/>
       <c r="C2" s="32"/>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="113" t="s">
         <v>110</v>
       </c>
       <c r="E2" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F2" s="153" t="s">
+      <c r="F2" s="155" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="155"/>
-      <c r="H2" s="153" t="s">
+      <c r="G2" s="157"/>
+      <c r="H2" s="155" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="154"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="156"/>
       <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:15" ht="70" customHeight="1">
@@ -10663,7 +10626,7 @@
       <c r="C3" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="112"/>
+      <c r="D3" s="114"/>
       <c r="E3" s="29" t="s">
         <v>147</v>
       </c>
@@ -12106,13 +12069,13 @@
       <c r="A15" s="5">
         <v>11</v>
       </c>
-      <c r="B15" s="177" t="s">
+      <c r="B15" s="81" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="174" t="s">
+      <c r="D15" s="176" t="s">
         <v>192</v>
       </c>
       <c r="E15" s="79" t="s">
@@ -12131,13 +12094,13 @@
         <f t="shared" ref="A16:A31" si="1">ROW()-2</f>
         <v>14</v>
       </c>
-      <c r="B16" s="178" t="s">
+      <c r="B16" s="82" t="s">
         <v>66</v>
       </c>
       <c r="C16" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="175"/>
+      <c r="D16" s="177"/>
       <c r="E16" s="79" t="s">
         <v>136</v>
       </c>
@@ -12154,13 +12117,13 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="178" t="s">
+      <c r="B17" s="82" t="s">
         <v>63</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="177"/>
       <c r="E17" s="79" t="s">
         <v>136</v>
       </c>
@@ -12177,13 +12140,13 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="178" t="s">
+      <c r="B18" s="82" t="s">
         <v>60</v>
       </c>
       <c r="C18" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="175"/>
+      <c r="D18" s="177"/>
       <c r="E18" s="79" t="s">
         <v>136</v>
       </c>
@@ -12200,13 +12163,13 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="178" t="s">
+      <c r="B19" s="82" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="175"/>
+      <c r="D19" s="177"/>
       <c r="E19" s="79" t="s">
         <v>136</v>
       </c>
@@ -12223,13 +12186,13 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="178" t="s">
+      <c r="B20" s="82" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="176"/>
+      <c r="D20" s="178"/>
       <c r="E20" s="79" t="s">
         <v>136</v>
       </c>
@@ -12252,7 +12215,7 @@
       <c r="C21" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="174"/>
+      <c r="D21" s="176"/>
       <c r="E21" s="47" t="s">
         <v>136</v>
       </c>
@@ -12275,7 +12238,7 @@
       <c r="C22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="175"/>
+      <c r="D22" s="177"/>
       <c r="E22" s="47" t="s">
         <v>136</v>
       </c>
@@ -12298,7 +12261,7 @@
       <c r="C23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="175"/>
+      <c r="D23" s="177"/>
       <c r="E23" s="47" t="s">
         <v>136</v>
       </c>
@@ -12321,7 +12284,7 @@
       <c r="C24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="175"/>
+      <c r="D24" s="177"/>
       <c r="E24" s="47" t="s">
         <v>136</v>
       </c>
@@ -12344,7 +12307,7 @@
       <c r="C25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="175"/>
+      <c r="D25" s="177"/>
       <c r="E25" s="47" t="s">
         <v>136</v>
       </c>
@@ -12367,7 +12330,7 @@
       <c r="C26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="175"/>
+      <c r="D26" s="177"/>
       <c r="E26" s="47" t="s">
         <v>136</v>
       </c>
@@ -12390,7 +12353,7 @@
       <c r="C27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="175"/>
+      <c r="D27" s="177"/>
       <c r="E27" s="47" t="s">
         <v>136</v>
       </c>
@@ -12413,7 +12376,7 @@
       <c r="C28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="175"/>
+      <c r="D28" s="177"/>
       <c r="E28" s="47" t="s">
         <v>136</v>
       </c>
@@ -12436,7 +12399,7 @@
       <c r="C29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="175"/>
+      <c r="D29" s="177"/>
       <c r="E29" s="47" t="s">
         <v>136</v>
       </c>
@@ -12459,7 +12422,7 @@
       <c r="C30" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="175"/>
+      <c r="D30" s="177"/>
       <c r="E30" s="47" t="s">
         <v>136</v>
       </c>
@@ -12482,7 +12445,7 @@
       <c r="C31" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="175"/>
+      <c r="D31" s="177"/>
       <c r="E31" s="47" t="s">
         <v>136</v>
       </c>
@@ -12504,7 +12467,7 @@
       <c r="C32" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="175"/>
+      <c r="D32" s="177"/>
       <c r="E32" s="47" t="s">
         <v>136</v>
       </c>
@@ -12527,7 +12490,7 @@
       <c r="C33" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="175"/>
+      <c r="D33" s="177"/>
       <c r="E33" s="47" t="s">
         <v>136</v>
       </c>
@@ -12550,7 +12513,7 @@
       <c r="C34" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="175"/>
+      <c r="D34" s="177"/>
       <c r="E34" s="47" t="s">
         <v>136</v>
       </c>
@@ -12573,7 +12536,7 @@
       <c r="C35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="175"/>
+      <c r="D35" s="177"/>
       <c r="E35" s="47" t="s">
         <v>136</v>
       </c>
@@ -12596,7 +12559,7 @@
       <c r="C36" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="175"/>
+      <c r="D36" s="177"/>
       <c r="E36" s="47" t="s">
         <v>136</v>
       </c>
@@ -12620,7 +12583,7 @@
       <c r="C37" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="175"/>
+      <c r="D37" s="177"/>
       <c r="E37" s="47" t="s">
         <v>136</v>
       </c>

--- a/design-document/ScreenRegisterMember.xlsx
+++ b/design-document/ScreenRegisterMember.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$K$60</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'02_Item definition'!$A$1:$J$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'02_Item definition'!$A$1:$J$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'03_Definition'!$A$1:$V$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'04_Check Condition Monadic'!$A$1:$O$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'05_Check Condition'!$A$1:$H$39</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="199">
   <si>
     <t>input/show Cấp Đan AIKIKAI 8</t>
   </si>
@@ -675,6 +675,15 @@
   </si>
   <si>
     <t>AKD_MS05-E</t>
+  </si>
+  <si>
+    <t>Ảnh</t>
+  </si>
+  <si>
+    <t>btnImage</t>
+  </si>
+  <si>
+    <t>input ảnh hội viên/ hiển thị ảnh hội viên</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1207,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1440,6 +1449,222 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1458,9 +1683,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1494,9 +1716,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1509,216 +1728,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1727,6 +1736,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -8481,7 +8517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
@@ -8522,10 +8558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
@@ -8916,13 +8952,13 @@
       <c r="B12" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="75" t="s">
         <v>74</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="183" t="s">
         <v>73</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -8931,11 +8967,11 @@
       <c r="G12" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="4" t="s">
+      <c r="H12" s="185"/>
+      <c r="I12" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="78" t="s">
         <v>71</v>
       </c>
       <c r="K12" s="1"/>
@@ -8943,33 +8979,33 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" ht="17.350000000000001" customHeight="1">
-      <c r="A13" s="5">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>3</v>
+      <c r="B13" s="179" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="182" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="181" t="s">
+        <v>197</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="4" t="s">
+      <c r="H13" s="181"/>
+      <c r="I13" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>67</v>
+      <c r="J13" s="182" t="s">
+        <v>198</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -8977,67 +9013,65 @@
     </row>
     <row r="14" spans="1:13" ht="17.350000000000001" customHeight="1">
       <c r="A14" s="5">
-        <f t="shared" ref="A14:A29" si="1">ROW()-2</f>
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="B14" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="180" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>2</v>
+      <c r="F14" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="G14" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="4" t="s">
+      <c r="H14" s="186"/>
+      <c r="I14" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>64</v>
+      <c r="J14" s="187" t="s">
+        <v>67</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1">
-      <c r="A15" s="8">
-        <f t="shared" si="1"/>
+      <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>10</v>
+      <c r="F15" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="G15" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="4" t="s">
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -9045,33 +9079,32 @@
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1">
       <c r="A16" s="8">
-        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>2</v>
+        <v>136</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="4" t="s">
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -9079,33 +9112,32 @@
     </row>
     <row r="17" spans="1:13" ht="25.5" customHeight="1">
       <c r="A17" s="8">
-        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G17" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6" t="s">
+      <c r="H17" s="5"/>
+      <c r="I17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>55</v>
+      <c r="J17" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -9113,101 +9145,101 @@
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1">
       <c r="A18" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A15:A30" si="1">ROW()-2</f>
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G18" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="4" t="s">
+      <c r="H18" s="6"/>
+      <c r="I18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>52</v>
+      <c r="J18" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A19" s="17">
+      <c r="A19" s="8">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="B19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16" t="s">
+      <c r="F19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J19" s="15" t="s">
-        <v>49</v>
+      <c r="J19" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="17.350000000000001" customHeight="1">
-      <c r="A20" s="5">
+      <c r="A20" s="17">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="12" t="s">
+      <c r="B20" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4" t="s">
+      <c r="F20" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J20" s="11" t="s">
-        <v>46</v>
+      <c r="J20" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -9219,10 +9251,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>10</v>
@@ -9241,7 +9273,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -9253,10 +9285,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>10</v>
@@ -9270,12 +9302,12 @@
       <c r="G22" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="9"/>
+      <c r="H22" s="4"/>
       <c r="I22" s="4" t="s">
         <v>1</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -9287,13 +9319,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>3</v>
@@ -9302,48 +9334,48 @@
         <v>10</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="4" t="s">
         <v>1</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="30.85" customHeight="1">
-      <c r="A24" s="8">
+      <c r="A24" s="5">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>36</v>
+      <c r="B24" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="4" t="s">
         <v>1</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -9355,15 +9387,15 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="6" t="s">
@@ -9373,11 +9405,11 @@
         <v>2</v>
       </c>
       <c r="H25" s="5"/>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J25" s="13" t="s">
-        <v>31</v>
+      <c r="J25" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -9389,13 +9421,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>2</v>
+        <v>32</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>3</v>
@@ -9406,12 +9438,12 @@
       <c r="G26" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="5"/>
       <c r="I26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J26" s="11" t="s">
-        <v>28</v>
+      <c r="J26" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -9423,49 +9455,49 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>2</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="5"/>
+      <c r="H27" s="4"/>
       <c r="I27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J27" s="13" t="s">
-        <v>25</v>
+      <c r="J27" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="17.350000000000001" customHeight="1">
-      <c r="A28" s="5">
+      <c r="A28" s="8">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>24</v>
+      <c r="B28" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -9474,12 +9506,12 @@
       <c r="G28" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H28" s="4"/>
+      <c r="H28" s="5"/>
       <c r="I28" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J28" s="11" t="s">
-        <v>22</v>
+      <c r="J28" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -9491,10 +9523,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>10</v>
@@ -9508,12 +9540,12 @@
       <c r="G29" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="9"/>
+      <c r="H29" s="4"/>
       <c r="I29" s="4" t="s">
         <v>1</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -9521,32 +9553,33 @@
     </row>
     <row r="30" spans="1:13" ht="17.350000000000001" customHeight="1">
       <c r="A30" s="5">
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="49" t="s">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="4" t="s">
         <v>1</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -9554,23 +9587,22 @@
     </row>
     <row r="31" spans="1:13" ht="17.350000000000001" customHeight="1">
       <c r="A31" s="5">
-        <f>ROW()-2</f>
-        <v>29</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>2</v>
       </c>
       <c r="G31" s="49" t="s">
         <v>136</v>
@@ -9579,42 +9611,42 @@
       <c r="I31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>13</v>
+      <c r="J31" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1">
-      <c r="A32" s="8">
+      <c r="A32" s="5">
         <f>ROW()-2</f>
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>10</v>
+      <c r="F32" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="G32" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="H32" s="5"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="4" t="s">
         <v>1</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -9626,29 +9658,29 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G33" s="49" t="s">
-        <v>2</v>
+        <v>136</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="4" t="s">
         <v>1</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -9660,10 +9692,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>2</v>
@@ -9682,11 +9714,42 @@
         <v>1</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="8">
+        <f>ROW()-2</f>
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.43307086614173229" bottom="0.35433070866141736" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -9726,97 +9789,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="164" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="94"/>
+      <c r="B1" s="165"/>
       <c r="C1" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="165" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94" t="s">
+      <c r="E1" s="165"/>
+      <c r="F1" s="165" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="102" t="s">
+      <c r="G1" s="165"/>
+      <c r="H1" s="172" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="104"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="174"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="166" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="86" t="s">
+      <c r="B2" s="167"/>
+      <c r="C2" s="158" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="96" t="s">
+      <c r="D2" s="159"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="167" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="H2" s="86" t="s">
+      <c r="G2" s="167"/>
+      <c r="H2" s="158" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="88"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="160"/>
     </row>
     <row r="3" spans="1:22" ht="45.35" customHeight="1">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="168" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="83" t="s">
+      <c r="B3" s="169"/>
+      <c r="C3" s="155" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="85"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="157"/>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="90" t="s">
+      <c r="B4" s="171"/>
+      <c r="C4" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="92"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="162"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="162"/>
+      <c r="L4" s="163"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="101"/>
-      <c r="B5" s="101"/>
+      <c r="A5" s="151"/>
+      <c r="B5" s="151"/>
     </row>
     <row r="6" spans="1:22" ht="13.35">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="154" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
       <c r="N6" s="58" t="s">
         <v>166</v>
       </c>
@@ -9825,102 +9888,102 @@
       <c r="A8" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="152" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="153" t="s">
+      <c r="C8" s="153"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="152" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="154"/>
-      <c r="L8" s="154"/>
-      <c r="N8" s="113" t="s">
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="153"/>
+      <c r="L8" s="153"/>
+      <c r="N8" s="139" t="s">
         <v>150</v>
       </c>
-      <c r="O8" s="113" t="s">
+      <c r="O8" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="P8" s="155" t="s">
+      <c r="P8" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="Q8" s="157"/>
-      <c r="R8" s="157"/>
-      <c r="S8" s="157"/>
-      <c r="T8" s="156"/>
-      <c r="U8" s="113" t="s">
+      <c r="Q8" s="143"/>
+      <c r="R8" s="143"/>
+      <c r="S8" s="143"/>
+      <c r="T8" s="142"/>
+      <c r="U8" s="139" t="s">
         <v>168</v>
       </c>
-      <c r="V8" s="113" t="s">
+      <c r="V8" s="139" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="16.7" customHeight="1">
-      <c r="A9" s="115">
+      <c r="A9" s="89">
         <v>1</v>
       </c>
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="145"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="136" t="s">
+      <c r="C9" s="119"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="110" t="s">
         <v>173</v>
       </c>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="138"/>
-      <c r="N9" s="114"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="155" t="s">
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="112"/>
+      <c r="N9" s="140"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="141" t="s">
         <v>171</v>
       </c>
-      <c r="Q9" s="157"/>
+      <c r="Q9" s="143"/>
       <c r="R9" s="72"/>
-      <c r="S9" s="155" t="s">
+      <c r="S9" s="141" t="s">
         <v>172</v>
       </c>
-      <c r="T9" s="156"/>
-      <c r="U9" s="114"/>
-      <c r="V9" s="114"/>
+      <c r="T9" s="142"/>
+      <c r="U9" s="140"/>
+      <c r="V9" s="140"/>
     </row>
     <row r="10" spans="1:22" ht="39.35" customHeight="1">
-      <c r="A10" s="116"/>
-      <c r="B10" s="147"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="140"/>
-      <c r="L10" s="141"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="115"/>
       <c r="N10" s="66">
         <v>1</v>
       </c>
       <c r="O10" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="P10" s="106" t="s">
+      <c r="P10" s="144" t="s">
         <v>176</v>
       </c>
-      <c r="Q10" s="107"/>
-      <c r="R10" s="108"/>
-      <c r="S10" s="109" t="s">
+      <c r="Q10" s="145"/>
+      <c r="R10" s="146"/>
+      <c r="S10" s="147" t="s">
         <v>174</v>
       </c>
-      <c r="T10" s="110"/>
+      <c r="T10" s="148"/>
       <c r="U10" s="64" t="s">
         <v>170</v>
       </c>
@@ -9929,33 +9992,33 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="17.350000000000001" customHeight="1">
-      <c r="A11" s="116"/>
-      <c r="B11" s="147"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="141"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="115"/>
       <c r="N11" s="67">
         <v>2</v>
       </c>
       <c r="O11" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="P11" s="161" t="s">
+      <c r="P11" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="Q11" s="163"/>
+      <c r="Q11" s="88"/>
       <c r="R11" s="71"/>
-      <c r="S11" s="111" t="s">
+      <c r="S11" s="149" t="s">
         <v>175</v>
       </c>
-      <c r="T11" s="112"/>
+      <c r="T11" s="150"/>
       <c r="U11" s="64" t="s">
         <v>170</v>
       </c>
@@ -9964,31 +10027,31 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="179.35" customHeight="1">
-      <c r="A12" s="116"/>
-      <c r="B12" s="147"/>
-      <c r="C12" s="148"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="141"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="115"/>
       <c r="N12" s="60">
         <v>3</v>
       </c>
       <c r="O12" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="P12" s="161" t="s">
+      <c r="P12" s="86" t="s">
         <v>177</v>
       </c>
-      <c r="Q12" s="163"/>
+      <c r="Q12" s="88"/>
       <c r="R12" s="71"/>
-      <c r="S12" s="161"/>
-      <c r="T12" s="162"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="87"/>
       <c r="U12" s="65" t="s">
         <v>170</v>
       </c>
@@ -9997,525 +10060,518 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="12.7" customHeight="1">
-      <c r="A13" s="116"/>
-      <c r="B13" s="147"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="140"/>
-      <c r="L13" s="141"/>
-      <c r="N13" s="170">
+      <c r="A13" s="90"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="115"/>
+      <c r="N13" s="133">
         <v>3</v>
       </c>
-      <c r="O13" s="173" t="s">
+      <c r="O13" s="136" t="s">
         <v>178</v>
       </c>
-      <c r="P13" s="164" t="s">
+      <c r="P13" s="127" t="s">
         <v>177</v>
       </c>
-      <c r="Q13" s="165"/>
+      <c r="Q13" s="128"/>
       <c r="R13" s="70"/>
-      <c r="S13" s="164"/>
-      <c r="T13" s="165"/>
-      <c r="U13" s="158" t="s">
+      <c r="S13" s="127"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="V13" s="158" t="s">
+      <c r="V13" s="83" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="12.7" customHeight="1">
-      <c r="A14" s="116"/>
-      <c r="B14" s="147"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="140"/>
-      <c r="L14" s="141"/>
-      <c r="N14" s="171"/>
-      <c r="O14" s="174"/>
-      <c r="P14" s="166"/>
-      <c r="Q14" s="167"/>
-      <c r="S14" s="166"/>
-      <c r="T14" s="167"/>
-      <c r="U14" s="159"/>
-      <c r="V14" s="159"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="115"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="137"/>
+      <c r="P14" s="129"/>
+      <c r="Q14" s="130"/>
+      <c r="S14" s="129"/>
+      <c r="T14" s="130"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="84"/>
     </row>
     <row r="15" spans="1:22" ht="12.7" customHeight="1">
-      <c r="A15" s="116"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="140"/>
-      <c r="L15" s="141"/>
-      <c r="N15" s="171"/>
-      <c r="O15" s="174"/>
-      <c r="P15" s="166"/>
-      <c r="Q15" s="167"/>
-      <c r="S15" s="166"/>
-      <c r="T15" s="167"/>
-      <c r="U15" s="159"/>
-      <c r="V15" s="159"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="115"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="137"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="130"/>
+      <c r="S15" s="129"/>
+      <c r="T15" s="130"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="84"/>
     </row>
     <row r="16" spans="1:22" ht="13.35" customHeight="1">
-      <c r="A16" s="116"/>
-      <c r="B16" s="147"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="149"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="140"/>
-      <c r="L16" s="141"/>
-      <c r="N16" s="171"/>
-      <c r="O16" s="174"/>
-      <c r="P16" s="166"/>
-      <c r="Q16" s="167"/>
-      <c r="S16" s="166"/>
-      <c r="T16" s="167"/>
-      <c r="U16" s="159"/>
-      <c r="V16" s="159"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="115"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="130"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="130"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="84"/>
     </row>
     <row r="17" spans="1:22" ht="13.35" customHeight="1">
-      <c r="A17" s="116"/>
-      <c r="B17" s="147"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="140"/>
-      <c r="K17" s="140"/>
-      <c r="L17" s="141"/>
-      <c r="N17" s="171"/>
-      <c r="O17" s="174"/>
-      <c r="P17" s="166"/>
-      <c r="Q17" s="167"/>
-      <c r="S17" s="166"/>
-      <c r="T17" s="167"/>
-      <c r="U17" s="159"/>
-      <c r="V17" s="159"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="115"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="137"/>
+      <c r="P17" s="129"/>
+      <c r="Q17" s="130"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="130"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="84"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="116"/>
-      <c r="B18" s="147"/>
-      <c r="C18" s="148"/>
-      <c r="D18" s="149"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="140"/>
-      <c r="L18" s="141"/>
-      <c r="N18" s="171"/>
-      <c r="O18" s="174"/>
-      <c r="P18" s="166"/>
-      <c r="Q18" s="167"/>
-      <c r="S18" s="166"/>
-      <c r="T18" s="167"/>
-      <c r="U18" s="159"/>
-      <c r="V18" s="159"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="115"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="129"/>
+      <c r="Q18" s="130"/>
+      <c r="S18" s="129"/>
+      <c r="T18" s="130"/>
+      <c r="U18" s="84"/>
+      <c r="V18" s="84"/>
     </row>
     <row r="19" spans="1:22" ht="8.6999999999999993" customHeight="1">
-      <c r="A19" s="116"/>
-      <c r="B19" s="147"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="149"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="140"/>
-      <c r="L19" s="141"/>
-      <c r="N19" s="171"/>
-      <c r="O19" s="174"/>
-      <c r="P19" s="166"/>
-      <c r="Q19" s="167"/>
-      <c r="S19" s="166"/>
-      <c r="T19" s="167"/>
-      <c r="U19" s="159"/>
-      <c r="V19" s="159"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="115"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="129"/>
+      <c r="Q19" s="130"/>
+      <c r="S19" s="129"/>
+      <c r="T19" s="130"/>
+      <c r="U19" s="84"/>
+      <c r="V19" s="84"/>
     </row>
     <row r="20" spans="1:22" ht="12.7" hidden="1" customHeight="1">
-      <c r="A20" s="116"/>
-      <c r="B20" s="147"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="140"/>
-      <c r="L20" s="141"/>
-      <c r="N20" s="171"/>
-      <c r="O20" s="174"/>
-      <c r="P20" s="166"/>
-      <c r="Q20" s="167"/>
-      <c r="S20" s="166"/>
-      <c r="T20" s="167"/>
-      <c r="U20" s="159"/>
-      <c r="V20" s="159"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="115"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="129"/>
+      <c r="Q20" s="130"/>
+      <c r="S20" s="129"/>
+      <c r="T20" s="130"/>
+      <c r="U20" s="84"/>
+      <c r="V20" s="84"/>
     </row>
     <row r="21" spans="1:22" ht="12.7" hidden="1" customHeight="1">
-      <c r="A21" s="117"/>
-      <c r="B21" s="150"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="143"/>
-      <c r="K21" s="143"/>
-      <c r="L21" s="144"/>
-      <c r="N21" s="171"/>
-      <c r="O21" s="174"/>
-      <c r="P21" s="166"/>
-      <c r="Q21" s="167"/>
-      <c r="S21" s="166"/>
-      <c r="T21" s="167"/>
-      <c r="U21" s="159"/>
-      <c r="V21" s="159"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="118"/>
+      <c r="N21" s="134"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="129"/>
+      <c r="Q21" s="130"/>
+      <c r="S21" s="129"/>
+      <c r="T21" s="130"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="84"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="101"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
-      <c r="N22" s="171"/>
-      <c r="O22" s="174"/>
-      <c r="P22" s="166"/>
-      <c r="Q22" s="167"/>
-      <c r="S22" s="166"/>
-      <c r="T22" s="167"/>
-      <c r="U22" s="159"/>
-      <c r="V22" s="159"/>
+      <c r="A22" s="151"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="151"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="129"/>
+      <c r="Q22" s="130"/>
+      <c r="S22" s="129"/>
+      <c r="T22" s="130"/>
+      <c r="U22" s="84"/>
+      <c r="V22" s="84"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="N23" s="171"/>
-      <c r="O23" s="174"/>
-      <c r="P23" s="166"/>
-      <c r="Q23" s="167"/>
-      <c r="S23" s="166"/>
-      <c r="T23" s="167"/>
-      <c r="U23" s="159"/>
-      <c r="V23" s="159"/>
+      <c r="N23" s="134"/>
+      <c r="O23" s="137"/>
+      <c r="P23" s="129"/>
+      <c r="Q23" s="130"/>
+      <c r="S23" s="129"/>
+      <c r="T23" s="130"/>
+      <c r="U23" s="84"/>
+      <c r="V23" s="84"/>
     </row>
     <row r="24" spans="1:22" ht="13.35">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="154" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="N24" s="171"/>
-      <c r="O24" s="174"/>
-      <c r="P24" s="166"/>
-      <c r="Q24" s="167"/>
-      <c r="S24" s="166"/>
-      <c r="T24" s="167"/>
-      <c r="U24" s="159"/>
-      <c r="V24" s="159"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="154"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="137"/>
+      <c r="P24" s="129"/>
+      <c r="Q24" s="130"/>
+      <c r="S24" s="129"/>
+      <c r="T24" s="130"/>
+      <c r="U24" s="84"/>
+      <c r="V24" s="84"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="N25" s="171"/>
-      <c r="O25" s="174"/>
-      <c r="P25" s="166"/>
-      <c r="Q25" s="167"/>
-      <c r="S25" s="166"/>
-      <c r="T25" s="167"/>
-      <c r="U25" s="159"/>
-      <c r="V25" s="159"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="137"/>
+      <c r="P25" s="129"/>
+      <c r="Q25" s="130"/>
+      <c r="S25" s="129"/>
+      <c r="T25" s="130"/>
+      <c r="U25" s="84"/>
+      <c r="V25" s="84"/>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="153" t="s">
+      <c r="B26" s="152" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="153" t="s">
+      <c r="C26" s="153"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="152" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="154"/>
-      <c r="L26" s="154"/>
-      <c r="N26" s="171"/>
-      <c r="O26" s="174"/>
-      <c r="P26" s="166"/>
-      <c r="Q26" s="167"/>
-      <c r="S26" s="166"/>
-      <c r="T26" s="167"/>
-      <c r="U26" s="159"/>
-      <c r="V26" s="159"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="153"/>
+      <c r="L26" s="153"/>
+      <c r="N26" s="134"/>
+      <c r="O26" s="137"/>
+      <c r="P26" s="129"/>
+      <c r="Q26" s="130"/>
+      <c r="S26" s="129"/>
+      <c r="T26" s="130"/>
+      <c r="U26" s="84"/>
+      <c r="V26" s="84"/>
     </row>
     <row r="27" spans="1:22" ht="18.7" customHeight="1">
-      <c r="A27" s="115">
+      <c r="A27" s="89">
         <v>1</v>
       </c>
-      <c r="B27" s="118" t="s">
+      <c r="B27" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="145"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="136" t="s">
+      <c r="C27" s="119"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="110" t="s">
         <v>165</v>
       </c>
-      <c r="F27" s="137"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="137"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="137"/>
-      <c r="L27" s="138"/>
-      <c r="N27" s="171"/>
-      <c r="O27" s="174"/>
-      <c r="P27" s="166"/>
-      <c r="Q27" s="167"/>
-      <c r="S27" s="166"/>
-      <c r="T27" s="167"/>
-      <c r="U27" s="159"/>
-      <c r="V27" s="159"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="112"/>
+      <c r="N27" s="134"/>
+      <c r="O27" s="137"/>
+      <c r="P27" s="129"/>
+      <c r="Q27" s="130"/>
+      <c r="S27" s="129"/>
+      <c r="T27" s="130"/>
+      <c r="U27" s="84"/>
+      <c r="V27" s="84"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="116"/>
-      <c r="B28" s="147"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="140"/>
-      <c r="L28" s="141"/>
-      <c r="N28" s="171"/>
-      <c r="O28" s="174"/>
-      <c r="P28" s="166"/>
-      <c r="Q28" s="167"/>
-      <c r="S28" s="166"/>
-      <c r="T28" s="167"/>
-      <c r="U28" s="159"/>
-      <c r="V28" s="159"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="115"/>
+      <c r="N28" s="134"/>
+      <c r="O28" s="137"/>
+      <c r="P28" s="129"/>
+      <c r="Q28" s="130"/>
+      <c r="S28" s="129"/>
+      <c r="T28" s="130"/>
+      <c r="U28" s="84"/>
+      <c r="V28" s="84"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="117"/>
-      <c r="B29" s="150"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="143"/>
-      <c r="H29" s="143"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="143"/>
-      <c r="K29" s="143"/>
-      <c r="L29" s="144"/>
-      <c r="N29" s="171"/>
-      <c r="O29" s="174"/>
-      <c r="P29" s="166"/>
-      <c r="Q29" s="167"/>
-      <c r="S29" s="166"/>
-      <c r="T29" s="167"/>
-      <c r="U29" s="159"/>
-      <c r="V29" s="159"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="117"/>
+      <c r="K29" s="117"/>
+      <c r="L29" s="118"/>
+      <c r="N29" s="134"/>
+      <c r="O29" s="137"/>
+      <c r="P29" s="129"/>
+      <c r="Q29" s="130"/>
+      <c r="S29" s="129"/>
+      <c r="T29" s="130"/>
+      <c r="U29" s="84"/>
+      <c r="V29" s="84"/>
     </row>
     <row r="30" spans="1:22" ht="12.7" customHeight="1">
-      <c r="A30" s="115">
-        <v>2</v>
-      </c>
-      <c r="B30" s="118" t="s">
+      <c r="A30" s="89">
+        <v>2</v>
+      </c>
+      <c r="B30" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="C30" s="119"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="127" t="s">
+      <c r="C30" s="93"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="101" t="s">
         <v>164</v>
       </c>
-      <c r="F30" s="128"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="129"/>
-      <c r="N30" s="172"/>
-      <c r="O30" s="175"/>
-      <c r="P30" s="168"/>
-      <c r="Q30" s="169"/>
-      <c r="S30" s="168"/>
-      <c r="T30" s="169"/>
-      <c r="U30" s="160"/>
-      <c r="V30" s="160"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="103"/>
+      <c r="N30" s="135"/>
+      <c r="O30" s="138"/>
+      <c r="P30" s="131"/>
+      <c r="Q30" s="132"/>
+      <c r="S30" s="131"/>
+      <c r="T30" s="132"/>
+      <c r="U30" s="85"/>
+      <c r="V30" s="85"/>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="116"/>
-      <c r="B31" s="121"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="131"/>
-      <c r="K31" s="131"/>
-      <c r="L31" s="132"/>
+      <c r="A31" s="90"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="106"/>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="116"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="131"/>
-      <c r="K32" s="131"/>
-      <c r="L32" s="132"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="106"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="117"/>
-      <c r="B33" s="124"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="134"/>
-      <c r="G33" s="134"/>
-      <c r="H33" s="134"/>
-      <c r="I33" s="134"/>
-      <c r="J33" s="134"/>
-      <c r="K33" s="134"/>
-      <c r="L33" s="135"/>
+      <c r="A33" s="91"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="108"/>
+      <c r="L33" s="109"/>
     </row>
     <row r="34" spans="1:12" ht="12.7" customHeight="1">
-      <c r="A34" s="115">
+      <c r="A34" s="89">
         <v>3</v>
       </c>
-      <c r="B34" s="118" t="s">
+      <c r="B34" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="C34" s="119"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="127" t="s">
+      <c r="C34" s="93"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="F34" s="128"/>
-      <c r="G34" s="128"/>
-      <c r="H34" s="128"/>
-      <c r="I34" s="128"/>
-      <c r="J34" s="128"/>
-      <c r="K34" s="128"/>
-      <c r="L34" s="129"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="103"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="116"/>
-      <c r="B35" s="121"/>
-      <c r="C35" s="122"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="131"/>
-      <c r="G35" s="131"/>
-      <c r="H35" s="131"/>
-      <c r="I35" s="131"/>
-      <c r="J35" s="131"/>
-      <c r="K35" s="131"/>
-      <c r="L35" s="132"/>
+      <c r="A35" s="90"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="106"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="116"/>
-      <c r="B36" s="121"/>
-      <c r="C36" s="122"/>
-      <c r="D36" s="123"/>
-      <c r="E36" s="130"/>
-      <c r="F36" s="131"/>
-      <c r="G36" s="131"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="131"/>
-      <c r="J36" s="131"/>
-      <c r="K36" s="131"/>
-      <c r="L36" s="132"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="105"/>
+      <c r="L36" s="106"/>
     </row>
     <row r="37" spans="1:12" ht="28" customHeight="1">
-      <c r="A37" s="117"/>
-      <c r="B37" s="124"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="133"/>
-      <c r="F37" s="134"/>
-      <c r="G37" s="134"/>
-      <c r="H37" s="134"/>
-      <c r="I37" s="134"/>
-      <c r="J37" s="134"/>
-      <c r="K37" s="134"/>
-      <c r="L37" s="135"/>
+      <c r="A37" s="91"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="108"/>
+      <c r="K37" s="108"/>
+      <c r="L37" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="V13:V30"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:D37"/>
-    <mergeCell ref="E34:L37"/>
-    <mergeCell ref="E27:L29"/>
-    <mergeCell ref="B27:D29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="S13:T30"/>
-    <mergeCell ref="N13:N30"/>
-    <mergeCell ref="O13:O30"/>
-    <mergeCell ref="P13:Q30"/>
-    <mergeCell ref="U13:U30"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="P10:R10"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="S11:T11"/>
@@ -10532,20 +10588,27 @@
     <mergeCell ref="E8:L8"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="V13:V30"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:D37"/>
+    <mergeCell ref="E34:L37"/>
+    <mergeCell ref="E27:L29"/>
+    <mergeCell ref="B27:D29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="S13:T30"/>
+    <mergeCell ref="N13:N30"/>
+    <mergeCell ref="O13:O30"/>
+    <mergeCell ref="P13:Q30"/>
+    <mergeCell ref="U13:U30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="34" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10595,25 +10658,25 @@
       <c r="A2" s="34"/>
       <c r="B2" s="33"/>
       <c r="C2" s="32"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="139" t="s">
         <v>110</v>
       </c>
       <c r="E2" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F2" s="155" t="s">
+      <c r="F2" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="157"/>
-      <c r="H2" s="155" t="s">
+      <c r="G2" s="143"/>
+      <c r="H2" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="156"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="142"/>
       <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:15" ht="70" customHeight="1">
@@ -10626,7 +10689,7 @@
       <c r="C3" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="114"/>
+      <c r="D3" s="140"/>
       <c r="E3" s="29" t="s">
         <v>147</v>
       </c>

--- a/design-document/ScreenRegisterMember.xlsx
+++ b/design-document/ScreenRegisterMember.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="2" r:id="rId1"/>
@@ -65,12 +65,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="H9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Cau thong bao cho truong co format Email</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="201">
   <si>
     <t>input/show Cấp Đan AIKIKAI 8</t>
   </si>
@@ -479,32 +503,11 @@
     <t>Form number</t>
   </si>
   <si>
-    <t>Định dang ngay không hợp lệ</t>
-  </si>
-  <si>
     <t>－</t>
     <phoneticPr fontId="0"/>
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Độ dài ký tự không quá 50</t>
-  </si>
-  <si>
-    <t>Định dạng ngày không hợp lệ</t>
-  </si>
-  <si>
-    <t>Số điện thoại không hợp lệ</t>
-  </si>
-  <si>
-    <t>Độ dài không quá 100 ký tự.</t>
-  </si>
-  <si>
-    <t>Độ dài không quá 50 ký tự.</t>
-  </si>
-  <si>
-    <t>Độ dài tên không quá 50 ký tự.</t>
   </si>
   <si>
     <t>Explanation of processing</t>
@@ -617,12 +620,6 @@
     <t>_</t>
   </si>
   <si>
-    <t>Student_Model.cs,Provide_Dai_Dan_Model.cs , DaiDan_Model.cs, AccsessDB_DAO.cs,   LoadMemberInfo_DAO.cs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Student_Model.cs, ProvideDaiDan_Model.cs, DaiDan_Model.cs, AccessDB_DAO.cs</t>
-  </si>
-  <si>
     <t>Lưu thông tin hội viên mới</t>
   </si>
   <si>
@@ -684,6 +681,39 @@
   </si>
   <si>
     <t>input ảnh hội viên/ hiển thị ảnh hội viên</t>
+  </si>
+  <si>
+    <t>Student_Model.cs,Provide_Dai_Dan_Model.cs ,, AccsessDB_DAO.cs,  Learn_Model.cs, LoadMemberInfo_DAO.cs</t>
+  </si>
+  <si>
+    <t>RegisterMember._BLO.cs, ManageClass (show class combobox)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Student_Model.cs, ProvideDaiDan_Model.cs, AccessDB_DAO.cs, Learn_Model.cs</t>
+  </si>
+  <si>
+    <t>In thông tin hội viên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Click "Print ", hệ thống lưu thông tin của hội viên lên file word và khỏi động word.                                   </t>
+  </si>
+  <si>
+    <t>SettingImage._BLO.cs</t>
+  </si>
+  <si>
+    <t>RegisterMemberScreen.xaml, Word</t>
+  </si>
+  <si>
+    <t>{0}Lớp Đăng Ký</t>
+  </si>
+  <si>
+    <t>{0} nhỏ hơn 20 ký tự</t>
+  </si>
+  <si>
+    <t>{0} quá dài</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0}  không hợp lệ </t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1316,9 +1346,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1354,9 +1381,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1449,6 +1473,312 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1458,276 +1788,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1736,33 +1799,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4066,7 +4102,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>31358</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2483059" cy="2178888"/>
+    <xdr:ext cx="2483059" cy="2829002"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -4074,8 +4110,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13719466" y="2892200"/>
-          <a:ext cx="2483059" cy="2178888"/>
+          <a:off x="13690320" y="3326493"/>
+          <a:ext cx="2483059" cy="2829002"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4188,19 +4224,37 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>+ Day_Create (ngày cấp đai/đản)</a:t>
+            <a:t>+Image</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>+Day_Update(ngày cập nhật cấp đai/đản)</a:t>
+            <a:t>+ Day_Create (ngày cấp đai/đản)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>+Day_Update(ngày cập nhật cấp đai/đản)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t>+Delete_FLag (đánh dấu đã cấp đai /đản)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>+Dictionary&lt;int,Datetime&gt; DaiDan_Level</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>   (Danh sách đai, đản được cấp).</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -4324,21 +4378,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>235185</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2272630</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>616428</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>343244</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2445925" cy="2515067"/>
+    <xdr:ext cx="2182777" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13691137" y="5115011"/>
-          <a:ext cx="2445925" cy="2515067"/>
+          <a:off x="2710212" y="11075316"/>
+          <a:ext cx="2182777" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4361,121 +4415,74 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:noAutofit/>
+          <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>+RegisterNumber</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>+</a:t>
+            <a:t>-Hiện</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>FullName </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>+ Nation Address   </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>+ PhoneNumber</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>+ Day_of_Birth</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>+ Place_of_birth</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>+ Day_Create (</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> ngày tạo hồ sơ hội viên)</a:t>
+            <a:t> thông báo "Lưu thành công,"</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>602025</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>148739</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2144883" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2695809" y="10880811"/>
+          <a:ext cx="2144883" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>+ Day_Update(ngày</a:t>
+            <a:t> - Form</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> update hs hội viên)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>+</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Delete_Flag.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>+</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> ID_DAI_DAN</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>+ MaCap</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>+ Day_Create (ngày cấp đai/đản)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>+Day_Update(ngày cập nhật cấp đai/đản)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>+Delete_FLag (đánh dấu đã cấp đai /đản)</a:t>
+            <a:t> đăng ký được load mới lại.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -8517,7 +8524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
@@ -8560,8 +8567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
@@ -8640,14 +8647,14 @@
       <c r="F3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>77</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>103</v>
@@ -8676,14 +8683,14 @@
       <c r="F4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="48" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>77</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>100</v>
@@ -8712,7 +8719,7 @@
       <c r="F5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="48" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -8748,8 +8755,8 @@
       <c r="F6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="49" t="s">
-        <v>136</v>
+      <c r="G6" s="48" t="s">
+        <v>135</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>77</v>
@@ -8784,7 +8791,7 @@
       <c r="F7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="48" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="5" t="s">
@@ -8820,7 +8827,7 @@
       <c r="F8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="48" t="s">
         <v>2</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -8856,7 +8863,7 @@
       <c r="F9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="48" t="s">
         <v>2</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -8892,7 +8899,7 @@
       <c r="F10" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="48" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -8928,8 +8935,8 @@
       <c r="F11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="49" t="s">
-        <v>136</v>
+      <c r="G11" s="48" t="s">
+        <v>135</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>77</v>
@@ -8952,26 +8959,26 @@
       <c r="B12" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="73" t="s">
         <v>74</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="183" t="s">
+      <c r="E12" s="85" t="s">
         <v>73</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="H12" s="185"/>
-      <c r="I12" s="80" t="s">
+      <c r="G12" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" s="87"/>
+      <c r="I12" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="78" t="s">
+      <c r="J12" s="76" t="s">
         <v>71</v>
       </c>
       <c r="K12" s="1"/>
@@ -8982,30 +8989,30 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="179" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" s="182" t="s">
-        <v>197</v>
+      <c r="B13" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="84" t="s">
+        <v>188</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="181" t="s">
-        <v>197</v>
+        <v>135</v>
+      </c>
+      <c r="E13" s="83" t="s">
+        <v>188</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H13" s="181"/>
-      <c r="I13" s="181" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="182" t="s">
-        <v>198</v>
+      <c r="J13" s="84" t="s">
+        <v>189</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -9018,26 +9025,26 @@
       <c r="B14" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="180" t="s">
+      <c r="C14" s="82" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="184" t="s">
+      <c r="E14" s="86" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" s="186"/>
+        <v>135</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="88"/>
       <c r="I14" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="187" t="s">
+      <c r="J14" s="89" t="s">
         <v>67</v>
       </c>
       <c r="K14" s="1"/>
@@ -9063,8 +9070,8 @@
       <c r="F15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="49" t="s">
-        <v>136</v>
+      <c r="G15" s="48" t="s">
+        <v>135</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="4" t="s">
@@ -9096,8 +9103,8 @@
       <c r="F16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="49" t="s">
-        <v>136</v>
+      <c r="G16" s="48" t="s">
+        <v>135</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="4" t="s">
@@ -9129,7 +9136,7 @@
       <c r="F17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="48" t="s">
         <v>2</v>
       </c>
       <c r="H17" s="5"/>
@@ -9145,7 +9152,7 @@
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1">
       <c r="A18" s="8">
-        <f t="shared" ref="A15:A30" si="1">ROW()-2</f>
+        <f t="shared" ref="A18:A30" si="1">ROW()-2</f>
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -9163,7 +9170,7 @@
       <c r="F18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="48" t="s">
         <v>2</v>
       </c>
       <c r="H18" s="6"/>
@@ -9197,7 +9204,7 @@
       <c r="F19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="49" t="s">
+      <c r="G19" s="48" t="s">
         <v>2</v>
       </c>
       <c r="H19" s="5"/>
@@ -9231,7 +9238,7 @@
       <c r="F20" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="57" t="s">
+      <c r="G20" s="55" t="s">
         <v>2</v>
       </c>
       <c r="H20" s="16"/>
@@ -9265,7 +9272,7 @@
       <c r="F21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="49" t="s">
+      <c r="G21" s="48" t="s">
         <v>2</v>
       </c>
       <c r="H21" s="4"/>
@@ -9299,7 +9306,7 @@
       <c r="F22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="48" t="s">
         <v>2</v>
       </c>
       <c r="H22" s="4"/>
@@ -9333,7 +9340,7 @@
       <c r="F23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="48" t="s">
         <v>2</v>
       </c>
       <c r="H23" s="9"/>
@@ -9367,8 +9374,8 @@
       <c r="F24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="49" t="s">
-        <v>136</v>
+      <c r="G24" s="48" t="s">
+        <v>135</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="4" t="s">
@@ -9401,7 +9408,7 @@
       <c r="F25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="49" t="s">
+      <c r="G25" s="48" t="s">
         <v>2</v>
       </c>
       <c r="H25" s="5"/>
@@ -9435,7 +9442,7 @@
       <c r="F26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="48" t="s">
         <v>2</v>
       </c>
       <c r="H26" s="5"/>
@@ -9469,7 +9476,7 @@
       <c r="F27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="48" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="4"/>
@@ -9503,7 +9510,7 @@
       <c r="F28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="49" t="s">
+      <c r="G28" s="48" t="s">
         <v>2</v>
       </c>
       <c r="H28" s="5"/>
@@ -9537,7 +9544,7 @@
       <c r="F29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="48" t="s">
         <v>2</v>
       </c>
       <c r="H29" s="4"/>
@@ -9571,7 +9578,7 @@
       <c r="F30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="49" t="s">
+      <c r="G30" s="48" t="s">
         <v>2</v>
       </c>
       <c r="H30" s="9"/>
@@ -9604,8 +9611,8 @@
       <c r="F31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="49" t="s">
-        <v>136</v>
+      <c r="G31" s="48" t="s">
+        <v>135</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="4" t="s">
@@ -9638,8 +9645,8 @@
       <c r="F32" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G32" s="49" t="s">
-        <v>136</v>
+      <c r="G32" s="48" t="s">
+        <v>135</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="4" t="s">
@@ -9672,8 +9679,8 @@
       <c r="F33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="49" t="s">
-        <v>136</v>
+      <c r="G33" s="48" t="s">
+        <v>135</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="4" t="s">
@@ -9706,7 +9713,7 @@
       <c r="F34" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G34" s="49" t="s">
+      <c r="G34" s="48" t="s">
         <v>2</v>
       </c>
       <c r="H34" s="5"/>
@@ -9740,7 +9747,7 @@
       <c r="F35" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G35" s="49" t="s">
+      <c r="G35" s="48" t="s">
         <v>2</v>
       </c>
       <c r="H35" s="5"/>
@@ -9763,10 +9770,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="K3" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A12" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.7"/>
@@ -9789,789 +9796,863 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="105"/>
       <c r="C1" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="165" t="s">
+      <c r="D1" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165" t="s">
+      <c r="E1" s="105"/>
+      <c r="F1" s="105" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="165"/>
-      <c r="H1" s="172" t="s">
+      <c r="G1" s="105"/>
+      <c r="H1" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="174"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="115"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="158" t="s">
+      <c r="B2" s="107"/>
+      <c r="C2" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="159"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="167" t="s">
+      <c r="D2" s="98"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="107" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="167"/>
-      <c r="H2" s="158" t="s">
+      <c r="G2" s="107"/>
+      <c r="H2" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="160"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="99"/>
     </row>
     <row r="3" spans="1:22" ht="45.35" customHeight="1">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="108" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="155" t="s">
+      <c r="B3" s="109"/>
+      <c r="C3" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="157"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="96"/>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="110" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="171"/>
-      <c r="C4" s="161" t="s">
+      <c r="B4" s="111"/>
+      <c r="C4" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="163"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="103"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="151"/>
-      <c r="B5" s="151"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="112"/>
     </row>
     <row r="6" spans="1:22" ht="13.35">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="N6" s="58" t="s">
-        <v>166</v>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="N6" s="56" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="23.35" customHeight="1">
       <c r="A8" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="152" t="s">
+      <c r="B8" s="164" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="152" t="s">
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="164" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="153"/>
-      <c r="K8" s="153"/>
-      <c r="L8" s="153"/>
-      <c r="N8" s="139" t="s">
-        <v>150</v>
-      </c>
-      <c r="O8" s="139" t="s">
-        <v>158</v>
-      </c>
-      <c r="P8" s="141" t="s">
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="N8" s="124" t="s">
+        <v>143</v>
+      </c>
+      <c r="O8" s="124" t="s">
+        <v>151</v>
+      </c>
+      <c r="P8" s="166" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q8" s="168"/>
+      <c r="R8" s="168"/>
+      <c r="S8" s="168"/>
+      <c r="T8" s="167"/>
+      <c r="U8" s="124" t="s">
+        <v>161</v>
+      </c>
+      <c r="V8" s="124" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="16.7" customHeight="1">
+      <c r="A9" s="126">
+        <v>1</v>
+      </c>
+      <c r="B9" s="129" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="156"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="147" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="149"/>
+      <c r="N9" s="125"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="166" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q9" s="168"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="166" t="s">
+        <v>165</v>
+      </c>
+      <c r="T9" s="167"/>
+      <c r="U9" s="125"/>
+      <c r="V9" s="125"/>
+    </row>
+    <row r="10" spans="1:22" ht="74.7" customHeight="1">
+      <c r="A10" s="127"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="152"/>
+      <c r="N10" s="64">
+        <v>1</v>
+      </c>
+      <c r="O10" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="P10" s="117" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="120" t="s">
         <v>167</v>
       </c>
-      <c r="Q8" s="143"/>
-      <c r="R8" s="143"/>
-      <c r="S8" s="143"/>
-      <c r="T8" s="142"/>
-      <c r="U8" s="139" t="s">
+      <c r="T10" s="121"/>
+      <c r="U10" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="V10" s="57" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="17.350000000000001" customHeight="1">
+      <c r="A11" s="127"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="152"/>
+      <c r="N11" s="65">
+        <v>2</v>
+      </c>
+      <c r="O11" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="P11" s="169" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q11" s="170"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="122" t="s">
         <v>168</v>
       </c>
-      <c r="V8" s="139" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="16.7" customHeight="1">
-      <c r="A9" s="89">
-        <v>1</v>
-      </c>
-      <c r="B9" s="92" t="s">
+      <c r="T11" s="123"/>
+      <c r="U11" s="90" t="s">
+        <v>135</v>
+      </c>
+      <c r="V11" s="60" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="222.7" customHeight="1">
+      <c r="A12" s="127"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="152"/>
+      <c r="N12" s="58">
+        <v>3</v>
+      </c>
+      <c r="O12" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="119"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="110" t="s">
-        <v>173</v>
-      </c>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="112"/>
-      <c r="N9" s="140"/>
-      <c r="O9" s="140"/>
-      <c r="P9" s="141" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q9" s="143"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="141" t="s">
-        <v>172</v>
-      </c>
-      <c r="T9" s="142"/>
-      <c r="U9" s="140"/>
-      <c r="V9" s="140"/>
-    </row>
-    <row r="10" spans="1:22" ht="39.35" customHeight="1">
-      <c r="A10" s="90"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="115"/>
-      <c r="N10" s="66">
-        <v>1</v>
-      </c>
-      <c r="O10" s="68" t="s">
-        <v>160</v>
-      </c>
-      <c r="P10" s="144" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q10" s="145"/>
-      <c r="R10" s="146"/>
-      <c r="S10" s="147" t="s">
-        <v>174</v>
-      </c>
-      <c r="T10" s="148"/>
-      <c r="U10" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="V10" s="59" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="17.350000000000001" customHeight="1">
-      <c r="A11" s="90"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="115"/>
-      <c r="N11" s="67">
-        <v>2</v>
-      </c>
-      <c r="O11" s="69" t="s">
-        <v>116</v>
-      </c>
-      <c r="P11" s="86" t="s">
+      <c r="P12" s="169" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q12" s="170"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="169"/>
+      <c r="T12" s="186"/>
+      <c r="U12" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="V12" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="149" t="s">
-        <v>175</v>
-      </c>
-      <c r="T11" s="150"/>
-      <c r="U11" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="V11" s="62" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="179.35" customHeight="1">
-      <c r="A12" s="90"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="115"/>
-      <c r="N12" s="60">
-        <v>3</v>
-      </c>
-      <c r="O12" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="P12" s="86" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="V12" s="62" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="13" spans="1:22" ht="12.7" customHeight="1">
-      <c r="A13" s="90"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="115"/>
-      <c r="N13" s="133">
-        <v>3</v>
-      </c>
-      <c r="O13" s="136" t="s">
-        <v>178</v>
-      </c>
-      <c r="P13" s="127" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q13" s="128"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="127"/>
-      <c r="T13" s="128"/>
-      <c r="U13" s="83" t="s">
-        <v>170</v>
-      </c>
-      <c r="V13" s="83" t="s">
-        <v>161</v>
+      <c r="A13" s="127"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="152"/>
+      <c r="N13" s="171">
+        <v>4</v>
+      </c>
+      <c r="O13" s="174" t="s">
+        <v>193</v>
+      </c>
+      <c r="P13" s="177" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q13" s="178"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="177" t="s">
+        <v>135</v>
+      </c>
+      <c r="T13" s="178"/>
+      <c r="U13" s="183" t="s">
+        <v>195</v>
+      </c>
+      <c r="V13" s="183" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="12.7" customHeight="1">
-      <c r="A14" s="90"/>
-      <c r="B14" s="121"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="115"/>
-      <c r="N14" s="134"/>
-      <c r="O14" s="137"/>
-      <c r="P14" s="129"/>
-      <c r="Q14" s="130"/>
-      <c r="S14" s="129"/>
-      <c r="T14" s="130"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
+      <c r="A14" s="127"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="152"/>
+      <c r="N14" s="172"/>
+      <c r="O14" s="175"/>
+      <c r="P14" s="179"/>
+      <c r="Q14" s="180"/>
+      <c r="S14" s="179"/>
+      <c r="T14" s="180"/>
+      <c r="U14" s="184"/>
+      <c r="V14" s="184"/>
     </row>
     <row r="15" spans="1:22" ht="12.7" customHeight="1">
-      <c r="A15" s="90"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="115"/>
-      <c r="N15" s="134"/>
-      <c r="O15" s="137"/>
-      <c r="P15" s="129"/>
-      <c r="Q15" s="130"/>
-      <c r="S15" s="129"/>
-      <c r="T15" s="130"/>
-      <c r="U15" s="84"/>
-      <c r="V15" s="84"/>
+      <c r="A15" s="127"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="152"/>
+      <c r="N15" s="172"/>
+      <c r="O15" s="175"/>
+      <c r="P15" s="179"/>
+      <c r="Q15" s="180"/>
+      <c r="S15" s="179"/>
+      <c r="T15" s="180"/>
+      <c r="U15" s="184"/>
+      <c r="V15" s="184"/>
     </row>
     <row r="16" spans="1:22" ht="13.35" customHeight="1">
-      <c r="A16" s="90"/>
-      <c r="B16" s="121"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="115"/>
-      <c r="N16" s="134"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="129"/>
-      <c r="Q16" s="130"/>
-      <c r="S16" s="129"/>
-      <c r="T16" s="130"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="152"/>
+      <c r="N16" s="172"/>
+      <c r="O16" s="175"/>
+      <c r="P16" s="179"/>
+      <c r="Q16" s="180"/>
+      <c r="S16" s="179"/>
+      <c r="T16" s="180"/>
+      <c r="U16" s="184"/>
+      <c r="V16" s="184"/>
     </row>
     <row r="17" spans="1:22" ht="13.35" customHeight="1">
-      <c r="A17" s="90"/>
-      <c r="B17" s="121"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="115"/>
-      <c r="N17" s="134"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="129"/>
-      <c r="Q17" s="130"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="130"/>
-      <c r="U17" s="84"/>
-      <c r="V17" s="84"/>
+      <c r="A17" s="127"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="159"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="152"/>
+      <c r="N17" s="172"/>
+      <c r="O17" s="175"/>
+      <c r="P17" s="179"/>
+      <c r="Q17" s="180"/>
+      <c r="S17" s="179"/>
+      <c r="T17" s="180"/>
+      <c r="U17" s="184"/>
+      <c r="V17" s="184"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="90"/>
-      <c r="B18" s="121"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="115"/>
-      <c r="N18" s="134"/>
-      <c r="O18" s="137"/>
-      <c r="P18" s="129"/>
-      <c r="Q18" s="130"/>
-      <c r="S18" s="129"/>
-      <c r="T18" s="130"/>
-      <c r="U18" s="84"/>
-      <c r="V18" s="84"/>
+      <c r="A18" s="127"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="152"/>
+      <c r="N18" s="172"/>
+      <c r="O18" s="175"/>
+      <c r="P18" s="179"/>
+      <c r="Q18" s="180"/>
+      <c r="S18" s="179"/>
+      <c r="T18" s="180"/>
+      <c r="U18" s="184"/>
+      <c r="V18" s="184"/>
     </row>
     <row r="19" spans="1:22" ht="8.6999999999999993" customHeight="1">
-      <c r="A19" s="90"/>
-      <c r="B19" s="121"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="115"/>
-      <c r="N19" s="134"/>
-      <c r="O19" s="137"/>
-      <c r="P19" s="129"/>
-      <c r="Q19" s="130"/>
-      <c r="S19" s="129"/>
-      <c r="T19" s="130"/>
-      <c r="U19" s="84"/>
-      <c r="V19" s="84"/>
+      <c r="A19" s="127"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="152"/>
+      <c r="N19" s="172"/>
+      <c r="O19" s="175"/>
+      <c r="P19" s="179"/>
+      <c r="Q19" s="180"/>
+      <c r="S19" s="179"/>
+      <c r="T19" s="180"/>
+      <c r="U19" s="184"/>
+      <c r="V19" s="184"/>
     </row>
     <row r="20" spans="1:22" ht="12.7" hidden="1" customHeight="1">
-      <c r="A20" s="90"/>
-      <c r="B20" s="121"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="115"/>
-      <c r="N20" s="134"/>
-      <c r="O20" s="137"/>
-      <c r="P20" s="129"/>
-      <c r="Q20" s="130"/>
-      <c r="S20" s="129"/>
-      <c r="T20" s="130"/>
-      <c r="U20" s="84"/>
-      <c r="V20" s="84"/>
+      <c r="A20" s="127"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="152"/>
+      <c r="N20" s="172"/>
+      <c r="O20" s="175"/>
+      <c r="P20" s="179"/>
+      <c r="Q20" s="180"/>
+      <c r="S20" s="179"/>
+      <c r="T20" s="180"/>
+      <c r="U20" s="184"/>
+      <c r="V20" s="184"/>
     </row>
     <row r="21" spans="1:22" ht="12.7" hidden="1" customHeight="1">
-      <c r="A21" s="91"/>
-      <c r="B21" s="124"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="118"/>
-      <c r="N21" s="134"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="129"/>
-      <c r="Q21" s="130"/>
-      <c r="S21" s="129"/>
-      <c r="T21" s="130"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
+      <c r="A21" s="128"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="155"/>
+      <c r="N21" s="172"/>
+      <c r="O21" s="175"/>
+      <c r="P21" s="179"/>
+      <c r="Q21" s="180"/>
+      <c r="S21" s="179"/>
+      <c r="T21" s="180"/>
+      <c r="U21" s="184"/>
+      <c r="V21" s="184"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="151"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="151"/>
-      <c r="K22" s="151"/>
-      <c r="N22" s="134"/>
-      <c r="O22" s="137"/>
-      <c r="P22" s="129"/>
-      <c r="Q22" s="130"/>
-      <c r="S22" s="129"/>
-      <c r="T22" s="130"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="84"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="112"/>
+      <c r="N22" s="172"/>
+      <c r="O22" s="175"/>
+      <c r="P22" s="179"/>
+      <c r="Q22" s="180"/>
+      <c r="S22" s="179"/>
+      <c r="T22" s="180"/>
+      <c r="U22" s="184"/>
+      <c r="V22" s="184"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="N23" s="134"/>
-      <c r="O23" s="137"/>
-      <c r="P23" s="129"/>
-      <c r="Q23" s="130"/>
-      <c r="S23" s="129"/>
-      <c r="T23" s="130"/>
-      <c r="U23" s="84"/>
-      <c r="V23" s="84"/>
+      <c r="N23" s="172"/>
+      <c r="O23" s="175"/>
+      <c r="P23" s="179"/>
+      <c r="Q23" s="180"/>
+      <c r="S23" s="179"/>
+      <c r="T23" s="180"/>
+      <c r="U23" s="184"/>
+      <c r="V23" s="184"/>
     </row>
     <row r="24" spans="1:22" ht="13.35">
-      <c r="A24" s="154" t="s">
+      <c r="A24" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="154"/>
-      <c r="C24" s="154"/>
-      <c r="N24" s="134"/>
-      <c r="O24" s="137"/>
-      <c r="P24" s="129"/>
-      <c r="Q24" s="130"/>
-      <c r="S24" s="129"/>
-      <c r="T24" s="130"/>
-      <c r="U24" s="84"/>
-      <c r="V24" s="84"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="N24" s="172"/>
+      <c r="O24" s="175"/>
+      <c r="P24" s="179"/>
+      <c r="Q24" s="180"/>
+      <c r="S24" s="179"/>
+      <c r="T24" s="180"/>
+      <c r="U24" s="184"/>
+      <c r="V24" s="184"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="N25" s="134"/>
-      <c r="O25" s="137"/>
-      <c r="P25" s="129"/>
-      <c r="Q25" s="130"/>
-      <c r="S25" s="129"/>
-      <c r="T25" s="130"/>
-      <c r="U25" s="84"/>
-      <c r="V25" s="84"/>
+      <c r="N25" s="172"/>
+      <c r="O25" s="175"/>
+      <c r="P25" s="179"/>
+      <c r="Q25" s="180"/>
+      <c r="S25" s="179"/>
+      <c r="T25" s="180"/>
+      <c r="U25" s="184"/>
+      <c r="V25" s="184"/>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="152" t="s">
+      <c r="B26" s="164" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="153"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="152" t="s">
+      <c r="C26" s="165"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="164" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="153"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="153"/>
-      <c r="K26" s="153"/>
-      <c r="L26" s="153"/>
-      <c r="N26" s="134"/>
-      <c r="O26" s="137"/>
-      <c r="P26" s="129"/>
-      <c r="Q26" s="130"/>
-      <c r="S26" s="129"/>
-      <c r="T26" s="130"/>
-      <c r="U26" s="84"/>
-      <c r="V26" s="84"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="165"/>
+      <c r="L26" s="165"/>
+      <c r="N26" s="172"/>
+      <c r="O26" s="175"/>
+      <c r="P26" s="179"/>
+      <c r="Q26" s="180"/>
+      <c r="S26" s="179"/>
+      <c r="T26" s="180"/>
+      <c r="U26" s="184"/>
+      <c r="V26" s="184"/>
     </row>
     <row r="27" spans="1:22" ht="18.7" customHeight="1">
-      <c r="A27" s="89">
+      <c r="A27" s="126">
         <v>1</v>
       </c>
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="129" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="119"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="110" t="s">
-        <v>165</v>
-      </c>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="111"/>
-      <c r="L27" s="112"/>
-      <c r="N27" s="134"/>
-      <c r="O27" s="137"/>
-      <c r="P27" s="129"/>
-      <c r="Q27" s="130"/>
-      <c r="S27" s="129"/>
-      <c r="T27" s="130"/>
-      <c r="U27" s="84"/>
-      <c r="V27" s="84"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="147" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="149"/>
+      <c r="N27" s="172"/>
+      <c r="O27" s="175"/>
+      <c r="P27" s="179"/>
+      <c r="Q27" s="180"/>
+      <c r="S27" s="179"/>
+      <c r="T27" s="180"/>
+      <c r="U27" s="184"/>
+      <c r="V27" s="184"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="90"/>
-      <c r="B28" s="121"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="115"/>
-      <c r="N28" s="134"/>
-      <c r="O28" s="137"/>
-      <c r="P28" s="129"/>
-      <c r="Q28" s="130"/>
-      <c r="S28" s="129"/>
-      <c r="T28" s="130"/>
-      <c r="U28" s="84"/>
-      <c r="V28" s="84"/>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="A29" s="91"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="117"/>
-      <c r="I29" s="117"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="117"/>
-      <c r="L29" s="118"/>
-      <c r="N29" s="134"/>
-      <c r="O29" s="137"/>
-      <c r="P29" s="129"/>
-      <c r="Q29" s="130"/>
-      <c r="S29" s="129"/>
-      <c r="T29" s="130"/>
-      <c r="U29" s="84"/>
-      <c r="V29" s="84"/>
+      <c r="A28" s="127"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="151"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="151"/>
+      <c r="K28" s="151"/>
+      <c r="L28" s="152"/>
+      <c r="N28" s="172"/>
+      <c r="O28" s="175"/>
+      <c r="P28" s="179"/>
+      <c r="Q28" s="180"/>
+      <c r="S28" s="179"/>
+      <c r="T28" s="180"/>
+      <c r="U28" s="184"/>
+      <c r="V28" s="184"/>
+    </row>
+    <row r="29" spans="1:22" ht="64.7" customHeight="1">
+      <c r="A29" s="128"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="155"/>
+      <c r="N29" s="172"/>
+      <c r="O29" s="175"/>
+      <c r="P29" s="179"/>
+      <c r="Q29" s="180"/>
+      <c r="S29" s="179"/>
+      <c r="T29" s="180"/>
+      <c r="U29" s="184"/>
+      <c r="V29" s="184"/>
     </row>
     <row r="30" spans="1:22" ht="12.7" customHeight="1">
-      <c r="A30" s="89">
-        <v>2</v>
-      </c>
-      <c r="B30" s="92" t="s">
-        <v>178</v>
-      </c>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="101" t="s">
-        <v>164</v>
-      </c>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="102"/>
-      <c r="K30" s="102"/>
-      <c r="L30" s="103"/>
-      <c r="N30" s="135"/>
-      <c r="O30" s="138"/>
-      <c r="P30" s="131"/>
-      <c r="Q30" s="132"/>
-      <c r="S30" s="131"/>
-      <c r="T30" s="132"/>
-      <c r="U30" s="85"/>
-      <c r="V30" s="85"/>
+      <c r="A30" s="126">
+        <v>2</v>
+      </c>
+      <c r="B30" s="129" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="130"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="138" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="139"/>
+      <c r="L30" s="140"/>
+      <c r="N30" s="173"/>
+      <c r="O30" s="176"/>
+      <c r="P30" s="181"/>
+      <c r="Q30" s="182"/>
+      <c r="S30" s="181"/>
+      <c r="T30" s="182"/>
+      <c r="U30" s="185"/>
+      <c r="V30" s="185"/>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="90"/>
-      <c r="B31" s="95"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="105"/>
-      <c r="L31" s="106"/>
+      <c r="A31" s="127"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="142"/>
+      <c r="K31" s="142"/>
+      <c r="L31" s="143"/>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="90"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="106"/>
+      <c r="A32" s="127"/>
+      <c r="B32" s="132"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="142"/>
+      <c r="J32" s="142"/>
+      <c r="K32" s="142"/>
+      <c r="L32" s="143"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="91"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="108"/>
-      <c r="L33" s="109"/>
+      <c r="A33" s="128"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="136"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="144"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="146"/>
     </row>
     <row r="34" spans="1:12" ht="12.7" customHeight="1">
-      <c r="A34" s="89">
+      <c r="A34" s="126">
         <v>3</v>
       </c>
-      <c r="B34" s="92" t="s">
-        <v>179</v>
-      </c>
-      <c r="C34" s="93"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="101" t="s">
-        <v>180</v>
-      </c>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="102"/>
-      <c r="L34" s="103"/>
+      <c r="B34" s="129" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="130"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="138" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="139"/>
+      <c r="I34" s="139"/>
+      <c r="J34" s="139"/>
+      <c r="K34" s="139"/>
+      <c r="L34" s="140"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="90"/>
-      <c r="B35" s="95"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="106"/>
+      <c r="A35" s="127"/>
+      <c r="B35" s="132"/>
+      <c r="C35" s="133"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="142"/>
+      <c r="I35" s="142"/>
+      <c r="J35" s="142"/>
+      <c r="K35" s="142"/>
+      <c r="L35" s="143"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="90"/>
-      <c r="B36" s="95"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="105"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="106"/>
+      <c r="A36" s="127"/>
+      <c r="B36" s="132"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="142"/>
+      <c r="G36" s="142"/>
+      <c r="H36" s="142"/>
+      <c r="I36" s="142"/>
+      <c r="J36" s="142"/>
+      <c r="K36" s="142"/>
+      <c r="L36" s="143"/>
     </row>
     <row r="37" spans="1:12" ht="28" customHeight="1">
-      <c r="A37" s="91"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="108"/>
-      <c r="H37" s="108"/>
-      <c r="I37" s="108"/>
-      <c r="J37" s="108"/>
-      <c r="K37" s="108"/>
-      <c r="L37" s="109"/>
+      <c r="A37" s="128"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="136"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="145"/>
+      <c r="G37" s="145"/>
+      <c r="H37" s="145"/>
+      <c r="I37" s="145"/>
+      <c r="J37" s="145"/>
+      <c r="K37" s="145"/>
+      <c r="L37" s="146"/>
+    </row>
+    <row r="38" spans="1:12" ht="60.7" customHeight="1">
+      <c r="A38" s="126">
+        <v>4</v>
+      </c>
+      <c r="B38" s="129" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" s="130"/>
+      <c r="D38" s="131"/>
+      <c r="E38" s="138" t="s">
+        <v>194</v>
+      </c>
+      <c r="F38" s="139"/>
+      <c r="G38" s="139"/>
+      <c r="H38" s="139"/>
+      <c r="I38" s="139"/>
+      <c r="J38" s="139"/>
+      <c r="K38" s="139"/>
+      <c r="L38" s="140"/>
+    </row>
+    <row r="39" spans="1:12" hidden="1">
+      <c r="A39" s="127"/>
+      <c r="B39" s="132"/>
+      <c r="C39" s="133"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="142"/>
+      <c r="G39" s="142"/>
+      <c r="H39" s="142"/>
+      <c r="I39" s="142"/>
+      <c r="J39" s="142"/>
+      <c r="K39" s="142"/>
+      <c r="L39" s="143"/>
+    </row>
+    <row r="40" spans="1:12" hidden="1">
+      <c r="A40" s="127"/>
+      <c r="B40" s="132"/>
+      <c r="C40" s="133"/>
+      <c r="D40" s="134"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="142"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="142"/>
+      <c r="J40" s="142"/>
+      <c r="K40" s="142"/>
+      <c r="L40" s="143"/>
+    </row>
+    <row r="41" spans="1:12" hidden="1">
+      <c r="A41" s="128"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="145"/>
+      <c r="G41" s="145"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
+      <c r="J41" s="145"/>
+      <c r="K41" s="145"/>
+      <c r="L41" s="146"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
+  <mergeCells count="54">
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:D41"/>
+    <mergeCell ref="E38:L41"/>
+    <mergeCell ref="V13:V30"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T30"/>
+    <mergeCell ref="U13:U30"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:D37"/>
+    <mergeCell ref="E34:L37"/>
+    <mergeCell ref="E27:L29"/>
+    <mergeCell ref="B27:D29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="N13:N30"/>
+    <mergeCell ref="O13:O30"/>
+    <mergeCell ref="P13:Q30"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="P10:R10"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="S11:T11"/>
@@ -10588,27 +10669,20 @@
     <mergeCell ref="E8:L8"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="V13:V30"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:D37"/>
-    <mergeCell ref="E34:L37"/>
-    <mergeCell ref="E27:L29"/>
-    <mergeCell ref="B27:D29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="S13:T30"/>
-    <mergeCell ref="N13:N30"/>
-    <mergeCell ref="O13:O30"/>
-    <mergeCell ref="P13:Q30"/>
-    <mergeCell ref="U13:U30"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="34" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10625,8 +10699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
@@ -10658,55 +10732,55 @@
       <c r="A2" s="34"/>
       <c r="B2" s="33"/>
       <c r="C2" s="32"/>
-      <c r="D2" s="139" t="s">
+      <c r="D2" s="124" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2" s="141" t="s">
-        <v>152</v>
-      </c>
-      <c r="G2" s="143"/>
-      <c r="H2" s="141" t="s">
-        <v>151</v>
-      </c>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="142"/>
+      <c r="E2" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="166" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="168"/>
+      <c r="H2" s="166" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="167"/>
       <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:15" ht="70" customHeight="1">
       <c r="A3" s="27" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="140"/>
+        <v>141</v>
+      </c>
+      <c r="D3" s="125"/>
       <c r="E3" s="29" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="22.5" customHeight="1">
@@ -10721,7 +10795,7 @@
         <v>104</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>2</v>
@@ -10732,14 +10806,14 @@
       <c r="G4" s="4">
         <v>20</v>
       </c>
-      <c r="H4" s="49" t="s">
-        <v>136</v>
+      <c r="H4" s="48" t="s">
+        <v>135</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>105</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="22.5" customHeight="1">
@@ -10754,7 +10828,7 @@
         <v>101</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>2</v>
@@ -10765,14 +10839,14 @@
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="49" t="s">
-        <v>136</v>
+      <c r="H5" s="48" t="s">
+        <v>135</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>102</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="22.5" customHeight="1">
@@ -10798,14 +10872,14 @@
       <c r="G6" s="4">
         <v>50</v>
       </c>
-      <c r="H6" s="50" t="s">
-        <v>142</v>
+      <c r="H6" s="93" t="s">
+        <v>199</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>99</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="22.5" customHeight="1">
@@ -10831,14 +10905,14 @@
       <c r="G7" s="4">
         <v>50</v>
       </c>
-      <c r="H7" s="50" t="s">
-        <v>141</v>
+      <c r="H7" s="93" t="s">
+        <v>199</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>96</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="22.5" customHeight="1">
@@ -10864,14 +10938,14 @@
       <c r="G8" s="6">
         <v>100</v>
       </c>
-      <c r="H8" s="50" t="s">
-        <v>140</v>
+      <c r="H8" s="93" t="s">
+        <v>199</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>93</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="22.5" customHeight="1">
@@ -10889,7 +10963,7 @@
         <v>72</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>2</v>
@@ -10897,8 +10971,8 @@
       <c r="G9" s="5">
         <v>20</v>
       </c>
-      <c r="H9" s="50" t="s">
-        <v>139</v>
+      <c r="H9" s="92" t="s">
+        <v>198</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>90</v>
@@ -10930,8 +11004,8 @@
       <c r="G10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="50" t="s">
-        <v>138</v>
+      <c r="H10" s="92" t="s">
+        <v>200</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>87</v>
@@ -10963,8 +11037,8 @@
       <c r="G11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="50" t="s">
-        <v>138</v>
+      <c r="H11" s="92" t="s">
+        <v>200</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>83</v>
@@ -10996,8 +11070,8 @@
       <c r="G12" s="4">
         <v>50</v>
       </c>
-      <c r="H12" s="50" t="s">
-        <v>137</v>
+      <c r="H12" s="93" t="s">
+        <v>199</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>80</v>
@@ -11029,8 +11103,8 @@
       <c r="G13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="49" t="s">
-        <v>136</v>
+      <c r="H13" s="48" t="s">
+        <v>135</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>75</v>
@@ -11061,8 +11135,8 @@
       <c r="G14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="50" t="s">
-        <v>134</v>
+      <c r="H14" s="92" t="s">
+        <v>200</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>70</v>
@@ -11094,8 +11168,8 @@
       <c r="G15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="50" t="s">
-        <v>134</v>
+      <c r="H15" s="92" t="s">
+        <v>200</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>66</v>
@@ -11127,8 +11201,8 @@
       <c r="G16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="50" t="s">
-        <v>134</v>
+      <c r="H16" s="92" t="s">
+        <v>200</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>63</v>
@@ -11160,8 +11234,8 @@
       <c r="G17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="50" t="s">
-        <v>134</v>
+      <c r="H17" s="92" t="s">
+        <v>200</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>60</v>
@@ -11193,8 +11267,8 @@
       <c r="G18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="50" t="s">
-        <v>134</v>
+      <c r="H18" s="92" t="s">
+        <v>200</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>57</v>
@@ -11226,8 +11300,8 @@
       <c r="G19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="50" t="s">
-        <v>134</v>
+      <c r="H19" s="92" t="s">
+        <v>200</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>54</v>
@@ -11259,8 +11333,8 @@
       <c r="G20" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="50" t="s">
-        <v>134</v>
+      <c r="H20" s="92" t="s">
+        <v>200</v>
       </c>
       <c r="I20" s="19" t="s">
         <v>51</v>
@@ -11292,14 +11366,14 @@
       <c r="G21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="50" t="s">
-        <v>134</v>
+      <c r="H21" s="92" t="s">
+        <v>200</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>48</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="21.35" customHeight="1">
@@ -11325,14 +11399,14 @@
       <c r="G22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="50" t="s">
-        <v>134</v>
+      <c r="H22" s="92" t="s">
+        <v>200</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>45</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.850000000000001" customHeight="1">
@@ -11358,14 +11432,14 @@
       <c r="G23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="50" t="s">
-        <v>134</v>
+      <c r="H23" s="92" t="s">
+        <v>200</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>42</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="17.350000000000001" customHeight="1">
@@ -11391,14 +11465,14 @@
       <c r="G24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="50" t="s">
-        <v>134</v>
+      <c r="H24" s="92" t="s">
+        <v>200</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>39</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="20" customHeight="1">
@@ -11424,14 +11498,14 @@
       <c r="G25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="50" t="s">
-        <v>134</v>
+      <c r="H25" s="92" t="s">
+        <v>200</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>36</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="22.7" customHeight="1">
@@ -11457,8 +11531,8 @@
       <c r="G26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="50" t="s">
-        <v>134</v>
+      <c r="H26" s="92" t="s">
+        <v>200</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>33</v>
@@ -11490,8 +11564,8 @@
       <c r="G27" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="50" t="s">
-        <v>134</v>
+      <c r="H27" s="92" t="s">
+        <v>200</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>30</v>
@@ -11523,8 +11597,8 @@
       <c r="G28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="50" t="s">
-        <v>134</v>
+      <c r="H28" s="92" t="s">
+        <v>200</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>27</v>
@@ -11556,8 +11630,8 @@
       <c r="G29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="50" t="s">
-        <v>134</v>
+      <c r="H29" s="92" t="s">
+        <v>200</v>
       </c>
       <c r="I29" s="11" t="s">
         <v>24</v>
@@ -11589,8 +11663,8 @@
       <c r="G30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="50" t="s">
-        <v>134</v>
+      <c r="H30" s="92" t="s">
+        <v>200</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>21</v>
@@ -11621,8 +11695,8 @@
       <c r="G31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H31" s="50" t="s">
-        <v>134</v>
+      <c r="H31" s="92" t="s">
+        <v>200</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>18</v>
@@ -11654,8 +11728,8 @@
       <c r="G32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="50" t="s">
-        <v>134</v>
+      <c r="H32" s="92" t="s">
+        <v>200</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>15</v>
@@ -11687,8 +11761,8 @@
       <c r="G33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="50" t="s">
-        <v>134</v>
+      <c r="H33" s="92" t="s">
+        <v>200</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>12</v>
@@ -11720,8 +11794,8 @@
       <c r="G34" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="50" t="s">
-        <v>134</v>
+      <c r="H34" s="92" t="s">
+        <v>200</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>8</v>
@@ -11753,8 +11827,8 @@
       <c r="G35" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H35" s="50" t="s">
-        <v>134</v>
+      <c r="H35" s="92" t="s">
+        <v>200</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>5</v>
@@ -11786,8 +11860,8 @@
   </sheetPr>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
@@ -11798,7 +11872,7 @@
     <col min="4" max="4" width="36.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" style="53" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" style="51" customWidth="1"/>
     <col min="8" max="8" width="20.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="1" style="1" hidden="1" customWidth="1"/>
     <col min="10" max="15" width="9" style="1" hidden="1" customWidth="1"/>
@@ -11806,9 +11880,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="56.35" customHeight="1">
-      <c r="G1" s="48"/>
-      <c r="L1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="G1" s="47"/>
+      <c r="L1" s="45"/>
+      <c r="O1" s="45"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="34"/>
@@ -11816,46 +11890,46 @@
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
       <c r="E2" s="32"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="40"/>
+        <v>144</v>
+      </c>
+      <c r="F3" s="40"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="27" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B4" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="E4" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>143</v>
+      <c r="G4" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1">
@@ -11870,19 +11944,19 @@
         <v>104</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>135</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>135</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="30" customHeight="1">
@@ -11897,19 +11971,19 @@
         <v>101</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>135</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>135</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
@@ -11924,19 +11998,19 @@
         <v>98</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" s="73" t="s">
-        <v>193</v>
+        <v>174</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>184</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
@@ -11951,19 +12025,19 @@
         <v>95</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="73" t="s">
-        <v>193</v>
+        <v>174</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="71" t="s">
+        <v>184</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" customHeight="1">
@@ -11978,19 +12052,19 @@
         <v>92</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="73" t="s">
-        <v>193</v>
+        <v>174</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>184</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="30" customHeight="1">
@@ -12005,19 +12079,19 @@
         <v>89</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="73" t="s">
-        <v>193</v>
+        <v>174</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="71" t="s">
+        <v>184</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="30" customHeight="1">
@@ -12032,19 +12106,19 @@
         <v>86</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="73" t="s">
-        <v>193</v>
+        <v>176</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="71" t="s">
+        <v>184</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="30" customHeight="1">
@@ -12059,19 +12133,19 @@
         <v>82</v>
       </c>
       <c r="D12" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="E12" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>193</v>
-      </c>
       <c r="G12" s="3" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="30" customHeight="1">
@@ -12086,19 +12160,19 @@
         <v>79</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="E13" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F13" s="73" t="s">
-        <v>193</v>
+        <v>174</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="71" t="s">
+        <v>184</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="32" customHeight="1">
@@ -12106,50 +12180,50 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="80" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="G14" s="51" t="s">
-        <v>136</v>
+      <c r="D14" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="G14" s="91" t="s">
+        <v>197</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
       <c r="A15" s="5">
         <v>11</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="176" t="s">
-        <v>192</v>
-      </c>
-      <c r="E15" s="79" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="G15" s="50"/>
+      <c r="D15" s="187" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" s="49"/>
       <c r="H15" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="30" customHeight="1">
@@ -12157,22 +12231,22 @@
         <f t="shared" ref="A16:A31" si="1">ROW()-2</f>
         <v>14</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="177"/>
-      <c r="E16" s="79" t="s">
-        <v>136</v>
-      </c>
-      <c r="F16" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="G16" s="50"/>
+      <c r="D16" s="188"/>
+      <c r="E16" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" s="49"/>
       <c r="H16" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1">
@@ -12180,22 +12254,22 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="177"/>
-      <c r="E17" s="79" t="s">
-        <v>136</v>
-      </c>
-      <c r="F17" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="G17" s="50"/>
+      <c r="D17" s="188"/>
+      <c r="E17" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="49"/>
       <c r="H17" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1">
@@ -12203,22 +12277,22 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="177"/>
-      <c r="E18" s="79" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="G18" s="50"/>
+      <c r="D18" s="188"/>
+      <c r="E18" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" s="49"/>
       <c r="H18" s="37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1">
@@ -12226,22 +12300,22 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="177"/>
-      <c r="E19" s="79" t="s">
-        <v>136</v>
-      </c>
-      <c r="F19" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="G19" s="50"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" s="49"/>
       <c r="H19" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1">
@@ -12249,22 +12323,22 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="178"/>
-      <c r="E20" s="79" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="G20" s="50"/>
+      <c r="D20" s="189"/>
+      <c r="E20" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="49"/>
       <c r="H20" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1">
@@ -12272,22 +12346,22 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="176"/>
-      <c r="E21" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F21" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="G21" s="52"/>
+      <c r="D21" s="187"/>
+      <c r="E21" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" s="50"/>
       <c r="H21" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1">
@@ -12301,16 +12375,16 @@
       <c r="C22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="177"/>
-      <c r="E22" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="G22" s="50"/>
+      <c r="D22" s="188"/>
+      <c r="E22" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" s="49"/>
       <c r="H22" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1">
@@ -12324,16 +12398,16 @@
       <c r="C23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="177"/>
-      <c r="E23" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="G23" s="50"/>
+      <c r="D23" s="188"/>
+      <c r="E23" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" s="49"/>
       <c r="H23" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" customHeight="1">
@@ -12347,16 +12421,16 @@
       <c r="C24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="177"/>
-      <c r="E24" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F24" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="G24" s="50"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" s="49"/>
       <c r="H24" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" customHeight="1">
@@ -12370,16 +12444,16 @@
       <c r="C25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="177"/>
-      <c r="E25" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F25" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="G25" s="50"/>
+      <c r="D25" s="188"/>
+      <c r="E25" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" s="49"/>
       <c r="H25" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" customHeight="1">
@@ -12393,16 +12467,16 @@
       <c r="C26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="177"/>
-      <c r="E26" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F26" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="G26" s="50"/>
+      <c r="D26" s="188"/>
+      <c r="E26" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" s="49"/>
       <c r="H26" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1">
@@ -12416,16 +12490,16 @@
       <c r="C27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="177"/>
-      <c r="E27" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F27" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="G27" s="50"/>
+      <c r="D27" s="188"/>
+      <c r="E27" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" s="49"/>
       <c r="H27" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" customHeight="1">
@@ -12439,16 +12513,16 @@
       <c r="C28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="177"/>
-      <c r="E28" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F28" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="G28" s="50"/>
+      <c r="D28" s="188"/>
+      <c r="E28" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28" s="49"/>
       <c r="H28" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30" customHeight="1">
@@ -12462,16 +12536,16 @@
       <c r="C29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="177"/>
-      <c r="E29" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="G29" s="50"/>
+      <c r="D29" s="188"/>
+      <c r="E29" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" s="49"/>
       <c r="H29" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" customHeight="1">
@@ -12485,16 +12559,16 @@
       <c r="C30" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="177"/>
-      <c r="E30" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F30" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="G30" s="50"/>
+      <c r="D30" s="188"/>
+      <c r="E30" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30" s="49"/>
       <c r="H30" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30" customHeight="1">
@@ -12508,16 +12582,16 @@
       <c r="C31" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="177"/>
-      <c r="E31" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F31" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="G31" s="50"/>
+      <c r="D31" s="188"/>
+      <c r="E31" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="G31" s="49"/>
       <c r="H31" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="30" customHeight="1">
@@ -12530,16 +12604,16 @@
       <c r="C32" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="177"/>
-      <c r="E32" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F32" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="G32" s="50"/>
+      <c r="D32" s="188"/>
+      <c r="E32" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="G32" s="49"/>
       <c r="H32" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1">
@@ -12553,16 +12627,16 @@
       <c r="C33" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="177"/>
-      <c r="E33" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F33" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="G33" s="50"/>
+      <c r="D33" s="188"/>
+      <c r="E33" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="G33" s="49"/>
       <c r="H33" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" customHeight="1">
@@ -12576,16 +12650,16 @@
       <c r="C34" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="177"/>
-      <c r="E34" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F34" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="G34" s="50"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="G34" s="49"/>
       <c r="H34" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" customHeight="1">
@@ -12599,16 +12673,16 @@
       <c r="C35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="177"/>
-      <c r="E35" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F35" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="G35" s="50"/>
+      <c r="D35" s="188"/>
+      <c r="E35" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="G35" s="49"/>
       <c r="H35" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="51.35" hidden="1" customHeight="1">
@@ -12622,18 +12696,18 @@
       <c r="C36" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="177"/>
-      <c r="E36" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F36" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="G36" s="50" t="s">
+      <c r="D36" s="188"/>
+      <c r="E36" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F36" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="G36" s="49" t="s">
         <v>5</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="30" customHeight="1">
@@ -12646,16 +12720,16 @@
       <c r="C37" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="177"/>
-      <c r="E37" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F37" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="G37" s="50"/>
+      <c r="D37" s="188"/>
+      <c r="E37" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="G37" s="49"/>
       <c r="H37" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:8">

--- a/design-document/ScreenRegisterMember.xlsx
+++ b/design-document/ScreenRegisterMember.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20493" windowHeight="7307"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="05_Check Condition" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$K$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$N$63</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'02_Item definition'!$A$1:$J$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'03_Definition'!$A$1:$V$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'04_Check Condition Monadic'!$A$1:$O$35</definedName>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="202">
   <si>
     <t>input/show Cấp Đan AIKIKAI 8</t>
   </si>
@@ -626,9 +626,6 @@
     <t>Sửa thông tin hội viên</t>
   </si>
   <si>
-    <t xml:space="preserve">-Thay đổi thông tin hội viên, sau đó click "SAVE", hệ thống lưu thông tin hợp lệ của hội viên xuống cơ sở dữ liệu.                                   </t>
-  </si>
-  <si>
     <t>Minimum value</t>
   </si>
   <si>
@@ -638,9 +635,6 @@
     <t>not null</t>
   </si>
   <si>
-    <t>ngày sinh phải ở quá khú hoặc hiện tại</t>
-  </si>
-  <si>
     <t>not nulll</t>
   </si>
   <si>
@@ -671,9 +665,6 @@
     <t>AKD_MS016-E</t>
   </si>
   <si>
-    <t>AKD_MS05-E</t>
-  </si>
-  <si>
     <t>Ảnh</t>
   </si>
   <si>
@@ -714,6 +705,18 @@
   </si>
   <si>
     <t xml:space="preserve">{0}  không hợp lệ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Tìm kiếm thông tin hội viên từ màn hình Search, sau đó chọn hội viên cần sửa thông tin, thông tin hội viên sẽ được hiện lên trên màn hình đăng ký.click "SAVE", hệ thống lưu thông tin hợp lệ của hội viên xuống cơ sở dữ liệu.                                   </t>
+  </si>
+  <si>
+    <t>ngày sinh phải ở quá khứ hoặc hiện tại</t>
+  </si>
+  <si>
+    <t>AKD-MS007-E</t>
+  </si>
+  <si>
+    <t>AKD_MS005-E</t>
   </si>
 </sst>
 </file>
@@ -2579,7 +2582,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="15240"/>
-          <a:ext cx="9127067" cy="502920"/>
+          <a:ext cx="9118600" cy="502920"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -3205,40 +3208,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>524933</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>592666</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>397933</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>59267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1820333</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>91016</xdr:rowOff>
+      <xdr:colOff>1809365</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPr id="25" name="Picture 24"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1210733" y="592666"/>
-          <a:ext cx="7467600" cy="5238750"/>
+          <a:off x="397933" y="762000"/>
+          <a:ext cx="8269432" cy="5715000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3249,40 +3246,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>364066</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1809749</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>1820332</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>136106</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPr id="26" name="Picture 25"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219199" y="5791200"/>
-          <a:ext cx="7448550" cy="3076575"/>
+          <a:off x="364066" y="6112934"/>
+          <a:ext cx="8314266" cy="3361905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3319,7 +3310,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="15240"/>
-          <a:ext cx="10193867" cy="502920"/>
+          <a:ext cx="10185400" cy="502920"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -4265,11 +4256,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>627870</xdr:colOff>
+      <xdr:colOff>589770</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>26291</xdr:rowOff>
+      <xdr:rowOff>152146</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2182777" cy="264560"/>
+    <xdr:ext cx="4668030" cy="387286"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -4277,8 +4268,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2731168" y="8590993"/>
-          <a:ext cx="2182777" cy="264560"/>
+          <a:off x="2418570" y="10353421"/>
+          <a:ext cx="4668030" cy="387286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4300,20 +4291,22 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>-Hiện</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> thông báo "Lưu thành công,"</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>- Người dùng sửa thông tin và click "Save" , hệ thống sẽ cập nhật thông tin hợp lệ xuống cơ sở dữ liệu</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4324,7 +4317,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>602025</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>94916</xdr:rowOff>
+      <xdr:rowOff>438160</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2144883" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -4334,7 +4327,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2705323" y="8820039"/>
+          <a:off x="2695809" y="10815548"/>
           <a:ext cx="2144883" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5174,7 +5167,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="15240" y="22860"/>
-          <a:ext cx="11321627" cy="502920"/>
+          <a:ext cx="11313160" cy="502920"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -5789,7 +5782,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="15240" y="7620"/>
-          <a:ext cx="11321627" cy="502920"/>
+          <a:ext cx="11313160" cy="502920"/>
           <a:chOff x="0" y="2"/>
           <a:chExt cx="1121" cy="52"/>
         </a:xfrm>
@@ -6514,11 +6507,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1151467</xdr:colOff>
+      <xdr:colOff>1046692</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>364067</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="678904" cy="642484"/>
+    <xdr:ext cx="721929" cy="642484"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="TextBox 24"/>
@@ -6526,8 +6519,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8390467" y="4936067"/>
-          <a:ext cx="678904" cy="642484"/>
+          <a:off x="7390342" y="4936067"/>
+          <a:ext cx="721929" cy="642484"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6559,7 +6552,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>{0}: đai</a:t>
+            <a:t>{0}: DAI</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -6593,7 +6586,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t> :đai 5</a:t>
+            <a:t> :DAI 5</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6613,7 +6606,7 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="721864" cy="459100"/>
+    <xdr:ext cx="721929" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="31" name="TextBox 30"/>
@@ -6621,8 +6614,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8432800" y="5359400"/>
-          <a:ext cx="721864" cy="459100"/>
+          <a:off x="7391400" y="5353050"/>
+          <a:ext cx="721929" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6654,7 +6647,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>{0}: đai 5</a:t>
+            <a:t>{0}:DAI 5</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -6677,7 +6670,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t> :đai 4</a:t>
+            <a:t> :DAI 4</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6691,7 +6684,7 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="678904" cy="459100"/>
+    <xdr:ext cx="721929" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="32" name="TextBox 31"/>
@@ -6699,8 +6692,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8432800" y="5740400"/>
-          <a:ext cx="678904" cy="459100"/>
+          <a:off x="7391400" y="5734050"/>
+          <a:ext cx="721929" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6732,7 +6725,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>{0}: đai</a:t>
+            <a:t>{0}: DAI</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -6755,7 +6748,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t> :đai 3</a:t>
+            <a:t> :DAI 3</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6769,7 +6762,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="678904" cy="642484"/>
+    <xdr:ext cx="721929" cy="642484"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="33" name="TextBox 32"/>
@@ -6777,8 +6770,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8432800" y="6121400"/>
-          <a:ext cx="678904" cy="642484"/>
+          <a:off x="7391400" y="6115050"/>
+          <a:ext cx="721929" cy="642484"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6810,7 +6803,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>{0}: đai</a:t>
+            <a:t>{0}: DAI</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -6833,7 +6826,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t> :đai 2</a:t>
+            <a:t> :DAI 2</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6853,7 +6846,7 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="678904" cy="459100"/>
+    <xdr:ext cx="721929" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="34" name="TextBox 33"/>
@@ -6861,8 +6854,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8432800" y="6502400"/>
-          <a:ext cx="678904" cy="459100"/>
+          <a:off x="7391400" y="6496050"/>
+          <a:ext cx="721929" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6894,7 +6887,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>{0}: đai</a:t>
+            <a:t>{0}: DAI</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -6917,7 +6910,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t> :đai 1</a:t>
+            <a:t> :DAI 1</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6931,7 +6924,7 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="678904" cy="459100"/>
+    <xdr:ext cx="721929" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="35" name="TextBox 34"/>
@@ -6939,8 +6932,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8432800" y="6883400"/>
-          <a:ext cx="678904" cy="459100"/>
+          <a:off x="7391400" y="6877050"/>
+          <a:ext cx="721929" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6972,7 +6965,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>{0}: đai</a:t>
+            <a:t>{0}: DAI</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -6995,7 +6988,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t> :đai 1</a:t>
+            <a:t> :DAI 1</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7009,7 +7002,7 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="942630" cy="459100"/>
+    <xdr:ext cx="1000146" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="40" name="TextBox 39"/>
@@ -7017,8 +7010,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8432800" y="7264400"/>
-          <a:ext cx="942630" cy="459100"/>
+          <a:off x="7391400" y="7258050"/>
+          <a:ext cx="1000146" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7050,7 +7043,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>{0}: đai</a:t>
+            <a:t>{0}: DAI</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -7073,7 +7066,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t> :đản VN 1</a:t>
+            <a:t> :DAN VN 1</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7087,7 +7080,7 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="942630" cy="459100"/>
+    <xdr:ext cx="1000146" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="41" name="TextBox 40"/>
@@ -7095,8 +7088,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8432800" y="7645400"/>
-          <a:ext cx="942630" cy="459100"/>
+          <a:off x="7391400" y="7639050"/>
+          <a:ext cx="1000146" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7128,7 +7121,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>{0}: đản</a:t>
+            <a:t>{0}: DAN</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -7151,7 +7144,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t> :đản VN 2</a:t>
+            <a:t> :DAN VN 2</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7327,7 +7320,7 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="942630" cy="459100"/>
+    <xdr:ext cx="1000146" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="45" name="TextBox 44"/>
@@ -7335,8 +7328,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8432800" y="9169400"/>
-          <a:ext cx="942630" cy="459100"/>
+          <a:off x="7391400" y="9163050"/>
+          <a:ext cx="1000146" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7368,7 +7361,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>{0}: đản</a:t>
+            <a:t>{0}: DAN</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -7391,7 +7384,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t> :đản VN 6</a:t>
+            <a:t> :DAN VN 6</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7405,7 +7398,7 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="942630" cy="459100"/>
+    <xdr:ext cx="1000146" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="46" name="TextBox 45"/>
@@ -7413,8 +7406,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8432800" y="9550400"/>
-          <a:ext cx="942630" cy="459100"/>
+          <a:off x="7391400" y="9544050"/>
+          <a:ext cx="1000146" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7446,7 +7439,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>{0}: đản</a:t>
+            <a:t>{0}: DAN</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -7469,7 +7462,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t> :đản VN 7</a:t>
+            <a:t> :DAN VN 7</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7483,7 +7476,7 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="942630" cy="459100"/>
+    <xdr:ext cx="1000146" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="47" name="TextBox 46"/>
@@ -7491,8 +7484,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8432800" y="9931400"/>
-          <a:ext cx="942630" cy="459100"/>
+          <a:off x="7391400" y="9925050"/>
+          <a:ext cx="1000146" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7524,7 +7517,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>{0}: đản</a:t>
+            <a:t>{0}: DAN</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -7547,7 +7540,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t> :đản VN 8</a:t>
+            <a:t> :DAN VN 8</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7556,12 +7549,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1185333</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4233</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>355600</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="942630" cy="459100"/>
+    <xdr:ext cx="1000146" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="48" name="TextBox 47"/>
@@ -7569,8 +7562,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8424333" y="8001000"/>
-          <a:ext cx="942630" cy="459100"/>
+          <a:off x="7395633" y="7994650"/>
+          <a:ext cx="1000146" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7602,7 +7595,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>{0}: đản</a:t>
+            <a:t>{0}: DAN</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -7625,7 +7618,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t> :đản VN 3</a:t>
+            <a:t> :DAN VN 3</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7639,7 +7632,7 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1214243" cy="459100"/>
+    <xdr:ext cx="1271758" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="49" name="TextBox 48"/>
@@ -7647,8 +7640,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8432800" y="10312400"/>
-          <a:ext cx="1214243" cy="459100"/>
+          <a:off x="7391400" y="10306050"/>
+          <a:ext cx="1271758" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7680,7 +7673,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>{0}: đai</a:t>
+            <a:t>{0}: DAI</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -7703,7 +7696,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t> :đản AIKIKAI 1</a:t>
+            <a:t> :DAN AIKIKAI 1</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7717,7 +7710,7 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1214243" cy="459100"/>
+    <xdr:ext cx="1271758" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="50" name="TextBox 49"/>
@@ -7725,8 +7718,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8432800" y="10693400"/>
-          <a:ext cx="1214243" cy="459100"/>
+          <a:off x="7391400" y="10687050"/>
+          <a:ext cx="1271758" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7758,7 +7751,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>{0}: đản</a:t>
+            <a:t>{0}: </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -7781,7 +7774,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t> :đản AIKIKAI 2</a:t>
+            <a:t> :DAN AIKIKAI 2</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7795,7 +7788,7 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1214243" cy="459100"/>
+    <xdr:ext cx="1271758" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="51" name="TextBox 50"/>
@@ -7803,8 +7796,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8432800" y="11074400"/>
-          <a:ext cx="1214243" cy="459100"/>
+          <a:off x="7391400" y="11068050"/>
+          <a:ext cx="1271758" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7836,7 +7829,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>{0}: đản</a:t>
+            <a:t>{0}: DAN</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -7859,7 +7852,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t> :đản AIKIKAI 3</a:t>
+            <a:t> :DAN AIKIKAI 3</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7873,7 +7866,7 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1214243" cy="459100"/>
+    <xdr:ext cx="1271758" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="52" name="TextBox 51"/>
@@ -7881,8 +7874,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8432800" y="11455400"/>
-          <a:ext cx="1214243" cy="459100"/>
+          <a:off x="7391400" y="11449050"/>
+          <a:ext cx="1271758" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7914,7 +7907,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>{0}: đản</a:t>
+            <a:t>{0}: DAN</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -7937,7 +7930,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t> :đản AIKIKAI 4</a:t>
+            <a:t> :DAN AIKIKAI 4</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7951,7 +7944,7 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1214243" cy="459100"/>
+    <xdr:ext cx="1271758" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="53" name="TextBox 52"/>
@@ -7959,8 +7952,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8432800" y="11836400"/>
-          <a:ext cx="1214243" cy="459100"/>
+          <a:off x="7391400" y="11830050"/>
+          <a:ext cx="1271758" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7992,7 +7985,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>{0}: đản</a:t>
+            <a:t>{0}: DAN</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -8015,7 +8008,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t> :đản AIKIKAI 5</a:t>
+            <a:t> :DAN AIKIKAI 5</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8029,7 +8022,7 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1214243" cy="459100"/>
+    <xdr:ext cx="1271758" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="54" name="TextBox 53"/>
@@ -8037,8 +8030,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8432800" y="12217400"/>
-          <a:ext cx="1214243" cy="459100"/>
+          <a:off x="7391400" y="12211050"/>
+          <a:ext cx="1271758" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8070,7 +8063,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>{0}: đản</a:t>
+            <a:t>{0}: DAN</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -8093,7 +8086,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t> :đản AIKIKAI 6</a:t>
+            <a:t> :DAN AIKIKAI 6</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8107,7 +8100,7 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1214243" cy="459100"/>
+    <xdr:ext cx="1271758" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="55" name="TextBox 54"/>
@@ -8115,8 +8108,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8432800" y="12598400"/>
-          <a:ext cx="1214243" cy="459100"/>
+          <a:off x="7391400" y="12592050"/>
+          <a:ext cx="1271758" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8148,7 +8141,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>{0}: đản</a:t>
+            <a:t>{0}: DAN</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -8171,7 +8164,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t> :đản AIKIKAI 8</a:t>
+            <a:t> :DAN AIKIKAI 8</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8185,7 +8178,7 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1214243" cy="459100"/>
+    <xdr:ext cx="1271758" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="56" name="TextBox 55"/>
@@ -8193,8 +8186,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8432800" y="12217400"/>
-          <a:ext cx="1214243" cy="459100"/>
+          <a:off x="7391400" y="12973050"/>
+          <a:ext cx="1271758" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8226,7 +8219,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>{0}: đản</a:t>
+            <a:t>{0}: DAN</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -8249,7 +8242,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t> :đản AIKIKAI 8</a:t>
+            <a:t> :DAN AIKIKAI 8</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8524,14 +8517,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
   <cols>
     <col min="1" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="29.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" style="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="6.5546875" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
@@ -8581,11 +8574,11 @@
     <col min="6" max="6" width="8.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="38" style="2" customWidth="1"/>
     <col min="11" max="11" width="9.44140625" style="2" customWidth="1"/>
     <col min="12" max="12" width="7.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="29.77734375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="29.6640625" style="2" customWidth="1"/>
     <col min="14" max="14" width="1.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
@@ -8627,7 +8620,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="17.350000000000001" customHeight="1">
+    <row r="3" spans="1:13" ht="17.5" customHeight="1">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A12" si="0">ROW()-2</f>
         <v>1</v>
@@ -8699,7 +8692,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="17.350000000000001" customHeight="1">
+    <row r="5" spans="1:13" ht="17.5" customHeight="1">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -8735,7 +8728,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="17.350000000000001" customHeight="1">
+    <row r="6" spans="1:13" ht="17.5" customHeight="1">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8771,7 +8764,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="30.85" customHeight="1">
+    <row r="7" spans="1:13" ht="31" customHeight="1">
       <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8915,7 +8908,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="17.350000000000001" customHeight="1">
+    <row r="11" spans="1:13" ht="17.5" customHeight="1">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8985,21 +8978,21 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="17.350000000000001" customHeight="1">
+    <row r="13" spans="1:13" ht="17.5" customHeight="1">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="81" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C13" s="84" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E13" s="83" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>135</v>
@@ -9012,13 +9005,13 @@
         <v>1</v>
       </c>
       <c r="J13" s="84" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="17.350000000000001" customHeight="1">
+    <row r="14" spans="1:13" ht="17.5" customHeight="1">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -9218,7 +9211,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="17.350000000000001" customHeight="1">
+    <row r="20" spans="1:13" ht="17.5" customHeight="1">
       <c r="A20" s="17">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -9252,7 +9245,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" ht="17.350000000000001" customHeight="1">
+    <row r="21" spans="1:13" ht="17.5" customHeight="1">
       <c r="A21" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -9286,7 +9279,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="17.350000000000001" customHeight="1">
+    <row r="22" spans="1:13" ht="17.5" customHeight="1">
       <c r="A22" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -9320,7 +9313,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" ht="17.350000000000001" customHeight="1">
+    <row r="23" spans="1:13" ht="17.5" customHeight="1">
       <c r="A23" s="5">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -9354,7 +9347,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" ht="30.85" customHeight="1">
+    <row r="24" spans="1:13" ht="31" customHeight="1">
       <c r="A24" s="5">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -9490,7 +9483,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" ht="17.350000000000001" customHeight="1">
+    <row r="28" spans="1:13" ht="17.5" customHeight="1">
       <c r="A28" s="8">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -9524,7 +9517,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" ht="17.350000000000001" customHeight="1">
+    <row r="29" spans="1:13" ht="17.5" customHeight="1">
       <c r="A29" s="5">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -9558,7 +9551,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" ht="17.350000000000001" customHeight="1">
+    <row r="30" spans="1:13" ht="17.5" customHeight="1">
       <c r="A30" s="5">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -9592,7 +9585,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" ht="17.350000000000001" customHeight="1">
+    <row r="31" spans="1:13" ht="17.5" customHeight="1">
       <c r="A31" s="5">
         <v>11</v>
       </c>
@@ -9772,26 +9765,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A12" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38:L41"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.7"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="21"/>
-    <col min="3" max="3" width="9.77734375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="21" customWidth="1"/>
     <col min="4" max="10" width="8.88671875" style="21"/>
     <col min="11" max="11" width="8.6640625" style="21" customWidth="1"/>
     <col min="12" max="13" width="8.88671875" style="21"/>
     <col min="14" max="14" width="7.33203125" style="21" customWidth="1"/>
     <col min="15" max="15" width="21.88671875" style="21" customWidth="1"/>
     <col min="16" max="16" width="31.44140625" style="21" customWidth="1"/>
-    <col min="17" max="17" width="3.21875" style="21" customWidth="1"/>
+    <col min="17" max="17" width="3.33203125" style="21" customWidth="1"/>
     <col min="18" max="18" width="23.88671875" style="21" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="8.88671875" style="21"/>
     <col min="20" max="20" width="23.109375" style="21" customWidth="1"/>
     <col min="21" max="21" width="20.88671875" style="21" customWidth="1"/>
-    <col min="22" max="22" width="24.21875" style="21" customWidth="1"/>
+    <col min="22" max="22" width="24.33203125" style="21" customWidth="1"/>
     <col min="23" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
@@ -9891,7 +9884,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="23.35" customHeight="1">
+    <row r="8" spans="1:22" ht="23.5" customHeight="1">
       <c r="A8" s="22" t="s">
         <v>119</v>
       </c>
@@ -9983,7 +9976,7 @@
         <v>153</v>
       </c>
       <c r="P10" s="117" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="118"/>
       <c r="R10" s="119"/>
@@ -9992,13 +9985,13 @@
       </c>
       <c r="T10" s="121"/>
       <c r="U10" s="62" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="V10" s="57" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="17.350000000000001" customHeight="1">
+    <row r="11" spans="1:22" ht="17.5" customHeight="1">
       <c r="A11" s="127"/>
       <c r="B11" s="158"/>
       <c r="C11" s="159"/>
@@ -10033,7 +10026,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="222.7" customHeight="1">
+    <row r="12" spans="1:22" ht="222.85" customHeight="1">
       <c r="A12" s="127"/>
       <c r="B12" s="158"/>
       <c r="C12" s="159"/>
@@ -10053,7 +10046,7 @@
         <v>169</v>
       </c>
       <c r="P12" s="169" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q12" s="170"/>
       <c r="R12" s="69"/>
@@ -10066,7 +10059,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="12.7" customHeight="1">
+    <row r="13" spans="1:22" ht="12.85" customHeight="1">
       <c r="A13" s="127"/>
       <c r="B13" s="158"/>
       <c r="C13" s="159"/>
@@ -10083,7 +10076,7 @@
         <v>4</v>
       </c>
       <c r="O13" s="174" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P13" s="177" t="s">
         <v>135</v>
@@ -10095,13 +10088,13 @@
       </c>
       <c r="T13" s="178"/>
       <c r="U13" s="183" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="V13" s="183" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="12.7" customHeight="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="12.85" customHeight="1">
       <c r="A14" s="127"/>
       <c r="B14" s="158"/>
       <c r="C14" s="159"/>
@@ -10123,7 +10116,7 @@
       <c r="U14" s="184"/>
       <c r="V14" s="184"/>
     </row>
-    <row r="15" spans="1:22" ht="12.7" customHeight="1">
+    <row r="15" spans="1:22" ht="12.85" customHeight="1">
       <c r="A15" s="127"/>
       <c r="B15" s="158"/>
       <c r="C15" s="159"/>
@@ -10233,7 +10226,7 @@
       <c r="U19" s="184"/>
       <c r="V19" s="184"/>
     </row>
-    <row r="20" spans="1:22" ht="12.7" hidden="1" customHeight="1">
+    <row r="20" spans="1:22" ht="12.85" hidden="1" customHeight="1">
       <c r="A20" s="127"/>
       <c r="B20" s="158"/>
       <c r="C20" s="159"/>
@@ -10255,7 +10248,7 @@
       <c r="U20" s="184"/>
       <c r="V20" s="184"/>
     </row>
-    <row r="21" spans="1:22" ht="12.7" hidden="1" customHeight="1">
+    <row r="21" spans="1:22" ht="12.85" hidden="1" customHeight="1">
       <c r="A21" s="128"/>
       <c r="B21" s="161"/>
       <c r="C21" s="162"/>
@@ -10361,7 +10354,7 @@
       <c r="U26" s="184"/>
       <c r="V26" s="184"/>
     </row>
-    <row r="27" spans="1:22" ht="18.7" customHeight="1">
+    <row r="27" spans="1:22" ht="18.850000000000001" customHeight="1">
       <c r="A27" s="126">
         <v>1</v>
       </c>
@@ -10433,7 +10426,7 @@
       <c r="U29" s="184"/>
       <c r="V29" s="184"/>
     </row>
-    <row r="30" spans="1:22" ht="12.7" customHeight="1">
+    <row r="30" spans="1:22" ht="12.85" customHeight="1">
       <c r="A30" s="126">
         <v>2</v>
       </c>
@@ -10503,7 +10496,7 @@
       <c r="K33" s="145"/>
       <c r="L33" s="146"/>
     </row>
-    <row r="34" spans="1:12" ht="12.7" customHeight="1">
+    <row r="34" spans="1:12" ht="12.85" customHeight="1">
       <c r="A34" s="126">
         <v>3</v>
       </c>
@@ -10513,7 +10506,7 @@
       <c r="C34" s="130"/>
       <c r="D34" s="131"/>
       <c r="E34" s="138" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="F34" s="139"/>
       <c r="G34" s="139"/>
@@ -10551,7 +10544,7 @@
       <c r="K36" s="142"/>
       <c r="L36" s="143"/>
     </row>
-    <row r="37" spans="1:12" ht="28" customHeight="1">
+    <row r="37" spans="1:12" ht="58" customHeight="1">
       <c r="A37" s="128"/>
       <c r="B37" s="135"/>
       <c r="C37" s="136"/>
@@ -10565,17 +10558,17 @@
       <c r="K37" s="145"/>
       <c r="L37" s="146"/>
     </row>
-    <row r="38" spans="1:12" ht="60.7" customHeight="1">
+    <row r="38" spans="1:12" ht="60.85" customHeight="1">
       <c r="A38" s="126">
         <v>4</v>
       </c>
       <c r="B38" s="129" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C38" s="130"/>
       <c r="D38" s="131"/>
       <c r="E38" s="138" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F38" s="139"/>
       <c r="G38" s="139"/>
@@ -10713,18 +10706,18 @@
     <col min="6" max="6" width="7.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="23.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="0.109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="6.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="14.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="16.5546875" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="18.88671875" style="1" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="1" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="56.35" customHeight="1">
+    <row r="1" spans="1:15" ht="56.5" customHeight="1">
       <c r="L1" s="35"/>
       <c r="O1" s="35"/>
     </row>
@@ -10768,7 +10761,7 @@
         <v>140</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>139</v>
@@ -10873,7 +10866,7 @@
         <v>50</v>
       </c>
       <c r="H6" s="93" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>99</v>
@@ -10906,7 +10899,7 @@
         <v>50</v>
       </c>
       <c r="H7" s="93" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>96</v>
@@ -10939,7 +10932,7 @@
         <v>100</v>
       </c>
       <c r="H8" s="93" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>93</v>
@@ -10972,7 +10965,7 @@
         <v>20</v>
       </c>
       <c r="H9" s="92" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>90</v>
@@ -11005,7 +10998,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>87</v>
@@ -11038,7 +11031,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>83</v>
@@ -11071,7 +11064,7 @@
         <v>50</v>
       </c>
       <c r="H12" s="93" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>80</v>
@@ -11136,7 +11129,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>70</v>
@@ -11169,7 +11162,7 @@
         <v>10</v>
       </c>
       <c r="H15" s="92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>66</v>
@@ -11202,7 +11195,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>63</v>
@@ -11235,7 +11228,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>60</v>
@@ -11268,7 +11261,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>57</v>
@@ -11301,7 +11294,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>54</v>
@@ -11334,7 +11327,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I20" s="19" t="s">
         <v>51</v>
@@ -11367,7 +11360,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>48</v>
@@ -11400,7 +11393,7 @@
         <v>10</v>
       </c>
       <c r="H22" s="92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>45</v>
@@ -11409,7 +11402,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="18.850000000000001" customHeight="1">
+    <row r="23" spans="1:10" ht="19" customHeight="1">
       <c r="A23" s="5">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -11433,7 +11426,7 @@
         <v>10</v>
       </c>
       <c r="H23" s="92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>42</v>
@@ -11442,7 +11435,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="17.350000000000001" customHeight="1">
+    <row r="24" spans="1:10" ht="17.5" customHeight="1">
       <c r="A24" s="5">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -11466,7 +11459,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>39</v>
@@ -11475,7 +11468,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="20" customHeight="1">
+    <row r="25" spans="1:10" ht="20.2" customHeight="1">
       <c r="A25" s="8">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -11499,7 +11492,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>36</v>
@@ -11532,7 +11525,7 @@
         <v>10</v>
       </c>
       <c r="H26" s="92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>33</v>
@@ -11541,7 +11534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="23.35" customHeight="1">
+    <row r="27" spans="1:10" ht="23.5" customHeight="1">
       <c r="A27" s="8">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -11565,7 +11558,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>30</v>
@@ -11598,7 +11591,7 @@
         <v>10</v>
       </c>
       <c r="H28" s="92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>27</v>
@@ -11607,7 +11600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="23.35" customHeight="1">
+    <row r="29" spans="1:10" ht="23.5" customHeight="1">
       <c r="A29" s="5">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -11631,7 +11624,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I29" s="11" t="s">
         <v>24</v>
@@ -11664,7 +11657,7 @@
         <v>10</v>
       </c>
       <c r="H30" s="92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>21</v>
@@ -11696,7 +11689,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>18</v>
@@ -11729,7 +11722,7 @@
         <v>10</v>
       </c>
       <c r="H32" s="92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>15</v>
@@ -11738,7 +11731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="20" customHeight="1">
+    <row r="33" spans="1:10" ht="20.2" customHeight="1">
       <c r="A33" s="8">
         <f>ROW()-2</f>
         <v>31</v>
@@ -11762,7 +11755,7 @@
         <v>10</v>
       </c>
       <c r="H33" s="92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>12</v>
@@ -11795,7 +11788,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>8</v>
@@ -11828,7 +11821,7 @@
         <v>2</v>
       </c>
       <c r="H35" s="92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>5</v>
@@ -11860,8 +11853,8 @@
   </sheetPr>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView view="pageBreakPreview" topLeftCell="F12" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
@@ -11872,14 +11865,14 @@
     <col min="4" max="4" width="36.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" style="51" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="51" customWidth="1"/>
     <col min="8" max="8" width="20.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="1" style="1" hidden="1" customWidth="1"/>
     <col min="10" max="15" width="9" style="1" hidden="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="56.35" customHeight="1">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="56.5" customHeight="1">
       <c r="G1" s="47"/>
       <c r="L1" s="45"/>
       <c r="O1" s="45"/>
@@ -11998,16 +11991,16 @@
         <v>98</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E7" s="46" t="s">
         <v>135</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H7" s="36" t="s">
         <v>135</v>
@@ -12025,16 +12018,16 @@
         <v>95</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E8" s="46" t="s">
         <v>135</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H8" s="36" t="s">
         <v>135</v>
@@ -12052,16 +12045,16 @@
         <v>92</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E9" s="46" t="s">
         <v>135</v>
       </c>
       <c r="F9" s="71" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>135</v>
@@ -12079,16 +12072,16 @@
         <v>89</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E10" s="46" t="s">
         <v>135</v>
       </c>
       <c r="F10" s="71" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H10" s="36" t="s">
         <v>135</v>
@@ -12106,16 +12099,16 @@
         <v>86</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E11" s="46" t="s">
         <v>135</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H11" s="36" t="s">
         <v>135</v>
@@ -12133,16 +12126,16 @@
         <v>82</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="E12" s="46" t="s">
         <v>135</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H12" s="36" t="s">
         <v>135</v>
@@ -12160,22 +12153,22 @@
         <v>79</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E13" s="46" t="s">
         <v>135</v>
       </c>
       <c r="F13" s="71" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H13" s="36" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="32" customHeight="1">
+    <row r="14" spans="1:15" ht="32.200000000000003" customHeight="1">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -12187,16 +12180,16 @@
         <v>74</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E14" s="46" t="s">
         <v>135</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G14" s="91" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H14" s="36" t="s">
         <v>135</v>
@@ -12213,13 +12206,13 @@
         <v>69</v>
       </c>
       <c r="D15" s="187" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E15" s="77" t="s">
         <v>135</v>
       </c>
       <c r="F15" s="71" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G15" s="49"/>
       <c r="H15" s="36" t="s">
@@ -12242,7 +12235,7 @@
         <v>135</v>
       </c>
       <c r="F16" s="71" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="36" t="s">
@@ -12265,7 +12258,7 @@
         <v>135</v>
       </c>
       <c r="F17" s="71" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="36" t="s">
@@ -12288,7 +12281,7 @@
         <v>135</v>
       </c>
       <c r="F18" s="71" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G18" s="49"/>
       <c r="H18" s="37" t="s">
@@ -12311,7 +12304,7 @@
         <v>135</v>
       </c>
       <c r="F19" s="71" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G19" s="49"/>
       <c r="H19" s="36" t="s">
@@ -12334,7 +12327,7 @@
         <v>135</v>
       </c>
       <c r="F20" s="71" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G20" s="49"/>
       <c r="H20" s="36" t="s">
@@ -12357,7 +12350,7 @@
         <v>135</v>
       </c>
       <c r="F21" s="71" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G21" s="50"/>
       <c r="H21" s="36" t="s">
@@ -12380,7 +12373,7 @@
         <v>135</v>
       </c>
       <c r="F22" s="71" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G22" s="49"/>
       <c r="H22" s="36" t="s">
@@ -12403,7 +12396,7 @@
         <v>135</v>
       </c>
       <c r="F23" s="71" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G23" s="49"/>
       <c r="H23" s="36" t="s">
@@ -12426,7 +12419,7 @@
         <v>135</v>
       </c>
       <c r="F24" s="71" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G24" s="49"/>
       <c r="H24" s="36" t="s">
@@ -12449,7 +12442,7 @@
         <v>135</v>
       </c>
       <c r="F25" s="71" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G25" s="49"/>
       <c r="H25" s="36" t="s">
@@ -12472,7 +12465,7 @@
         <v>135</v>
       </c>
       <c r="F26" s="71" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G26" s="49"/>
       <c r="H26" s="36" t="s">
@@ -12495,7 +12488,7 @@
         <v>135</v>
       </c>
       <c r="F27" s="71" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G27" s="49"/>
       <c r="H27" s="36" t="s">
@@ -12518,7 +12511,7 @@
         <v>135</v>
       </c>
       <c r="F28" s="71" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G28" s="49"/>
       <c r="H28" s="36" t="s">
@@ -12541,7 +12534,7 @@
         <v>135</v>
       </c>
       <c r="F29" s="71" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G29" s="49"/>
       <c r="H29" s="36" t="s">
@@ -12564,7 +12557,7 @@
         <v>135</v>
       </c>
       <c r="F30" s="71" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="G30" s="49"/>
       <c r="H30" s="36" t="s">
@@ -12587,7 +12580,7 @@
         <v>135</v>
       </c>
       <c r="F31" s="71" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G31" s="49"/>
       <c r="H31" s="36" t="s">
@@ -12609,7 +12602,7 @@
         <v>135</v>
       </c>
       <c r="F32" s="71" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G32" s="49"/>
       <c r="H32" s="36" t="s">
@@ -12632,7 +12625,7 @@
         <v>135</v>
       </c>
       <c r="F33" s="71" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G33" s="49"/>
       <c r="H33" s="36" t="s">
@@ -12655,7 +12648,7 @@
         <v>135</v>
       </c>
       <c r="F34" s="71" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G34" s="49"/>
       <c r="H34" s="36" t="s">
@@ -12678,7 +12671,7 @@
         <v>135</v>
       </c>
       <c r="F35" s="71" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G35" s="49"/>
       <c r="H35" s="36" t="s">
@@ -12701,7 +12694,7 @@
         <v>135</v>
       </c>
       <c r="F36" s="71" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G36" s="49" t="s">
         <v>5</v>
@@ -12725,7 +12718,7 @@
         <v>135</v>
       </c>
       <c r="F37" s="71" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G37" s="49"/>
       <c r="H37" s="36" t="s">
